--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1080572.201066702</v>
+        <v>1079249.637254766</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5866991.033948783</v>
+        <v>5866991.033948781</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1783678.472736052</v>
+        <v>1783678.472736051</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8813809.50866716</v>
+        <v>8813809.508667162</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>10.29578271289062</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>74.00536571764088</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>28.01490760909618</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>98.41262563052108</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -879,10 +879,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
@@ -907,16 +907,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>255.880551075719</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>307.8983817831772</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>29.06736062834933</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>54.72290806889373</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>387.8281228960627</v>
+        <v>22.16531720044808</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>65.42520756919141</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>54.68688746169084</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1384,7 +1384,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>96.08513982486603</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -1429,7 +1429,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>309.974021089658</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>202.2315869571994</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>363.9585094926619</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>37.78331767565417</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
@@ -1666,7 +1666,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1824,16 +1824,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>82.33833308529057</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>170.7879507721959</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>165.9184445944652</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>9.862691669420766</v>
+        <v>98.90738312648294</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>84.73179601342657</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2143,7 +2143,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>22.92681701721022</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>72.18880972355014</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
@@ -2298,16 +2298,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>79.20507481715916</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>386.6812869399522</v>
+        <v>404.4697473695408</v>
       </c>
       <c r="H23" t="n">
         <v>306.0455584304623</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T23" t="n">
         <v>219.234755280439</v>
@@ -2380,7 +2380,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>153.2224419313594</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -2417,7 +2417,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I24" t="n">
-        <v>17.38633807794514</v>
+        <v>17.38633807794515</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>183.1891117048806</v>
+        <v>102.7445979019801</v>
       </c>
       <c r="T25" t="n">
         <v>236.8250266956711</v>
@@ -2541,7 +2541,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>147.5002310494248</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>399.0316474962607</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>404.4697473695408</v>
@@ -2575,7 +2575,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T26" t="n">
-        <v>219.234755280439</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.4761865113606</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>338.8736784724984</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2654,7 +2654,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I27" t="n">
-        <v>17.38633807794514</v>
+        <v>17.38633807794515</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>236.8250266956711</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>110.5996550619325</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>167.320581297169</v>
       </c>
     </row>
     <row r="29">
@@ -2851,7 +2851,7 @@
         <v>254.4761865113606</v>
       </c>
       <c r="V29" t="n">
-        <v>119.6389231920598</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2860,7 +2860,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>170.2270503965661</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I30" t="n">
-        <v>17.38633807794514</v>
+        <v>17.38633807794515</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -2964,13 +2964,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>16.53094662771877</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>68.57524659674661</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -3046,7 +3046,7 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H32" t="n">
-        <v>288.2570980008737</v>
+        <v>158.231281714787</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T32" t="n">
         <v>219.234755280439</v>
@@ -3128,7 +3128,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I33" t="n">
-        <v>17.38633807794514</v>
+        <v>17.38633807794515</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>68.36311315201743</v>
       </c>
       <c r="G34" t="n">
-        <v>147.4760623148247</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3277,7 +3277,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>269.0058312101748</v>
       </c>
       <c r="G35" t="n">
         <v>404.4697473695408</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T35" t="n">
-        <v>201.4462948508507</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U35" t="n">
         <v>254.4761865113606</v>
@@ -3365,7 +3365,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I36" t="n">
-        <v>17.38633807794514</v>
+        <v>17.38633807794515</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>66.07896560696119</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>89.08484285862646</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3520,10 +3520,10 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H38" t="n">
-        <v>79.34530250563822</v>
+        <v>298.5800577860777</v>
       </c>
       <c r="I38" t="n">
-        <v>78.88597920914967</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>130.0258162860864</v>
       </c>
       <c r="T38" t="n">
-        <v>219.234755280439</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>254.4761865113606</v>
@@ -3602,7 +3602,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I39" t="n">
-        <v>17.38633807794513</v>
+        <v>17.38633807794515</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T40" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>43.64671100120702</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -3729,7 +3729,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.41224808872095</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>190.1198520010243</v>
       </c>
       <c r="G41" t="n">
         <v>404.4697473695408</v>
@@ -3760,7 +3760,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I41" t="n">
-        <v>78.88597920914967</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>219.234755280439</v>
       </c>
       <c r="U41" t="n">
-        <v>27.77593058653722</v>
+        <v>254.4761865113606</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3839,7 +3839,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I42" t="n">
-        <v>17.38633807794513</v>
+        <v>17.38633807794515</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>227.664820132381</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>222.9544525535305</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3997,7 +3997,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I44" t="n">
-        <v>78.88597920914967</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>153.2224419313585</v>
       </c>
       <c r="X44" t="n">
-        <v>169.9367079279131</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4076,7 +4076,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I45" t="n">
-        <v>17.38633807794513</v>
+        <v>17.38633807794515</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,16 +4143,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.0170510227543</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>217.9354172723951</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.033101815613</v>
+        <v>1285.691534869224</v>
       </c>
       <c r="C2" t="n">
-        <v>1267.908511128883</v>
+        <v>875.5669441824938</v>
       </c>
       <c r="D2" t="n">
-        <v>863.4445812219433</v>
+        <v>875.1434183159583</v>
       </c>
       <c r="E2" t="n">
-        <v>853.144769779244</v>
+        <v>864.743637797887</v>
       </c>
       <c r="F2" t="n">
-        <v>836.1547617733356</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G2" t="n">
-        <v>427.4264776661678</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
-        <v>116.5179802938858</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O2" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="X2" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="Y2" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
     </row>
     <row r="3">
@@ -4412,16 +4412,16 @@
         <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922355</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>234.5779431922355</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M3" t="n">
-        <v>234.5779431922355</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N3" t="n">
-        <v>675.1644281008383</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O3" t="n">
         <v>1192.007362767164</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1020.35716349776</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="C4" t="n">
-        <v>1020.35716349776</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="D4" t="n">
-        <v>1020.35716349776</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E4" t="n">
-        <v>1020.35716349776</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F4" t="n">
-        <v>992.0592770239257</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G4" t="n">
-        <v>824.8088859494691</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
-        <v>675.2014307549257</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>2002.981563155502</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1816.589795035412</v>
+        <v>1471.75728969437</v>
       </c>
       <c r="T4" t="n">
-        <v>1577.041056012114</v>
+        <v>1232.208550671072</v>
       </c>
       <c r="U4" t="n">
-        <v>1294.242908558238</v>
+        <v>949.4104032171963</v>
       </c>
       <c r="V4" t="n">
-        <v>1020.35716349776</v>
+        <v>675.5246581567181</v>
       </c>
       <c r="W4" t="n">
-        <v>1020.35716349776</v>
+        <v>396.4549936655925</v>
       </c>
       <c r="X4" t="n">
-        <v>1020.35716349776</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="Y4" t="n">
-        <v>1020.35716349776</v>
+        <v>158.1111315252759</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.14903281907</v>
+        <v>1378.723472461974</v>
       </c>
       <c r="C5" t="n">
-        <v>1540.064846172744</v>
+        <v>968.5988817752439</v>
       </c>
       <c r="D5" t="n">
-        <v>1135.600916265805</v>
+        <v>564.1349518683044</v>
       </c>
       <c r="E5" t="n">
-        <v>721.2607007827014</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F5" t="n">
-        <v>300.230288736389</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.450954962253</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N5" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4600,19 +4600,19 @@
         <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1952.973206274203</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V5" t="n">
-        <v>1952.973206274203</v>
+        <v>1384.904248086059</v>
       </c>
       <c r="W5" t="n">
-        <v>1952.973206274203</v>
+        <v>1384.904248086059</v>
       </c>
       <c r="X5" t="n">
-        <v>1552.329808443156</v>
+        <v>1384.904248086059</v>
       </c>
       <c r="Y5" t="n">
-        <v>1552.329808443156</v>
+        <v>1384.904248086059</v>
       </c>
     </row>
     <row r="6">
@@ -4655,19 +4655,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1054.568412147451</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.263917876656</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="C7" t="n">
-        <v>362.1705454383725</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="D7" t="n">
-        <v>202.6759007612826</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
         <v>41.76508562960205</v>
@@ -4764,13 +4764,13 @@
         <v>588.5395825927103</v>
       </c>
       <c r="W7" t="n">
-        <v>533.263917876656</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X7" t="n">
-        <v>533.263917876656</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.263917876656</v>
+        <v>71.12605596126804</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2082.073505856017</v>
+        <v>586.9476870282217</v>
       </c>
       <c r="C8" t="n">
-        <v>1690.327927173125</v>
+        <v>564.5584777348398</v>
       </c>
       <c r="D8" t="n">
-        <v>1285.863997266186</v>
+        <v>564.1349518683044</v>
       </c>
       <c r="E8" t="n">
-        <v>871.5237817830823</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F8" t="n">
-        <v>450.4933697367699</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
-        <v>41.76508562960205</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M8" t="n">
-        <v>558.6080202959273</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="N8" t="n">
-        <v>1075.450954962253</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O8" t="n">
-        <v>1571.411346813777</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.254281480102</v>
+        <v>997.1688666927112</v>
       </c>
     </row>
     <row r="9">
@@ -4889,19 +4889,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L9" t="n">
-        <v>537.7254774811262</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M9" t="n">
-        <v>1054.568412147451</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N9" t="n">
-        <v>1571.411346813777</v>
+        <v>704.7239474634679</v>
       </c>
       <c r="O9" t="n">
-        <v>2088.254281480102</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q9" t="n">
         <v>2088.254281480102</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>865.1454348405214</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="C10" t="n">
-        <v>694.0520624022379</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="D10" t="n">
-        <v>534.5574177251478</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="E10" t="n">
-        <v>373.6466025934674</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="F10" t="n">
-        <v>209.0154767040586</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V10" t="n">
-        <v>1571.163982250452</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W10" t="n">
-        <v>1515.924701986118</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X10" t="n">
-        <v>1277.580839845801</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="Y10" t="n">
-        <v>1052.845141234566</v>
+        <v>224.1971997769844</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2237.518802661711</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C11" t="n">
-        <v>1827.394211974981</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D11" t="n">
-        <v>1422.930282068041</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>1008.590066584938</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>587.5596545386256</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
         <v>490.5039577458317</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>3833.080354073989</v>
+        <v>3734.531761723874</v>
       </c>
       <c r="W11" t="n">
-        <v>3449.320053209158</v>
+        <v>3350.771460859042</v>
       </c>
       <c r="X11" t="n">
-        <v>3048.67665537811</v>
+        <v>2950.128063027995</v>
       </c>
       <c r="Y11" t="n">
-        <v>2647.7399823262</v>
+        <v>2549.191389976085</v>
       </c>
     </row>
     <row r="12">
@@ -5126,22 +5126,22 @@
         <v>549.0499539559215</v>
       </c>
       <c r="L12" t="n">
-        <v>549.0499539559215</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M12" t="n">
-        <v>886.6708173828915</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="N12" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O12" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.2436976906228</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="C13" t="n">
-        <v>93.2436976906228</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="D13" t="n">
-        <v>93.2436976906228</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>828.6312213896092</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V13" t="n">
-        <v>554.7454763291312</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W13" t="n">
-        <v>275.6758118380055</v>
+        <v>904.9337799678997</v>
       </c>
       <c r="X13" t="n">
-        <v>93.2436976906228</v>
+        <v>666.589917827583</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.2436976906228</v>
+        <v>441.8542192163477</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
-        <v>1734.602869382415</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
         <v>1734.602869382415</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4526.90380932524</v>
+        <v>4624.019917181994</v>
       </c>
       <c r="T14" t="n">
-        <v>4304.697325272099</v>
+        <v>4401.813433128853</v>
       </c>
       <c r="U14" t="n">
-        <v>4047.636833531609</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="V14" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W14" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X14" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y14" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="15">
@@ -5363,22 +5363,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>1597.308950304478</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N15" t="n">
-        <v>2139.732893541123</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.2436976906228</v>
+        <v>591.0821058804529</v>
       </c>
       <c r="C16" t="n">
-        <v>93.2436976906228</v>
+        <v>419.9887334421693</v>
       </c>
       <c r="D16" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E16" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F16" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V16" t="n">
-        <v>554.7454763291312</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W16" t="n">
-        <v>275.6758118380055</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="X16" t="n">
-        <v>93.2436976906228</v>
+        <v>861.9518456939827</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.2436976906228</v>
+        <v>778.7818122744973</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>265.7567792786995</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K17" t="n">
         <v>885.5886702674165</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4494.590496051882</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U17" t="n">
-        <v>4494.590496051882</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V17" t="n">
-        <v>4144.752941388363</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P18" t="n">
         <v>2139.732893541123</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>861.9518456939827</v>
+        <v>958.3582250277686</v>
       </c>
       <c r="C19" t="n">
-        <v>861.9518456939827</v>
+        <v>787.2648525894851</v>
       </c>
       <c r="D19" t="n">
-        <v>851.989530876386</v>
+        <v>687.3584049869771</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="F19" t="n">
         <v>526.4475898552967</v>
@@ -5700,25 +5700,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T19" t="n">
-        <v>1383.093855288175</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U19" t="n">
-        <v>1100.295707834299</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V19" t="n">
-        <v>1100.295707834299</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="W19" t="n">
-        <v>1100.295707834299</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="X19" t="n">
-        <v>861.9518456939827</v>
+        <v>958.3582250277686</v>
       </c>
       <c r="Y19" t="n">
-        <v>861.9518456939827</v>
+        <v>958.3582250277686</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2462.839627293158</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C20" t="n">
-        <v>2052.715036606428</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.251106699488</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E20" t="n">
-        <v>1233.910891216385</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F20" t="n">
-        <v>812.8804791700727</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1521950629048</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H20" t="n">
         <v>93.2436976906228</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4576.597211790305</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W20" t="n">
-        <v>3674.640877840605</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X20" t="n">
-        <v>3273.997480009557</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y20" t="n">
-        <v>2873.060806957647</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M21" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N21" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O21" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>828.6312213896092</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>657.5378489513257</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>498.0432042742357</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>498.0432042742357</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>333.412078384827</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>166.1616873103704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U22" t="n">
-        <v>828.6312213896092</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V22" t="n">
-        <v>828.6312213896092</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W22" t="n">
-        <v>828.6312213896092</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="X22" t="n">
-        <v>828.6312213896092</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="Y22" t="n">
-        <v>828.6312213896092</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2447.103198462591</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C23" t="n">
-        <v>2036.978607775861</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D23" t="n">
-        <v>1632.514677868921</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E23" t="n">
-        <v>1218.174462385818</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F23" t="n">
-        <v>797.1440503395056</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G23" t="n">
-        <v>406.5568918143014</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H23" t="n">
-        <v>97.41996410676371</v>
+        <v>177.1027713887331</v>
       </c>
       <c r="I23" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J23" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K23" t="n">
-        <v>925.7208439477953</v>
+        <v>925.7208439477949</v>
       </c>
       <c r="L23" t="n">
         <v>1665.067141547876</v>
@@ -6001,40 +6001,40 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N23" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O23" t="n">
-        <v>3926.78508420296</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P23" t="n">
-        <v>4480.322041270213</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q23" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R23" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S23" t="n">
-        <v>4870.998205338185</v>
+        <v>4739.658996968402</v>
       </c>
       <c r="T23" t="n">
-        <v>4649.548957580167</v>
+        <v>4518.209749210383</v>
       </c>
       <c r="U23" t="n">
-        <v>4392.502304538389</v>
+        <v>4261.163096168605</v>
       </c>
       <c r="V23" t="n">
-        <v>4042.664749874869</v>
+        <v>3911.325541505086</v>
       </c>
       <c r="W23" t="n">
-        <v>3658.904449010038</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X23" t="n">
-        <v>3258.26105117899</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y23" t="n">
-        <v>2857.32437812708</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3505.438158345675</v>
+        <v>772.0777366053014</v>
       </c>
       <c r="C24" t="n">
-        <v>3371.443087094621</v>
+        <v>638.0826653542472</v>
       </c>
       <c r="D24" t="n">
-        <v>3254.545929314013</v>
+        <v>521.1855075736396</v>
       </c>
       <c r="E24" t="n">
-        <v>3134.053113306341</v>
+        <v>400.6926915659676</v>
       </c>
       <c r="F24" t="n">
-        <v>3025.093233488846</v>
+        <v>291.7328117484722</v>
       </c>
       <c r="G24" t="n">
-        <v>2918.195675260428</v>
+        <v>184.8352535200544</v>
       </c>
       <c r="H24" t="n">
-        <v>2848.342343501628</v>
+        <v>114.9819217612538</v>
       </c>
       <c r="I24" t="n">
-        <v>2830.780385847137</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J24" t="n">
-        <v>2830.780385847137</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K24" t="n">
-        <v>2830.780385847137</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L24" t="n">
-        <v>2830.780385847137</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M24" t="n">
-        <v>3696.741976463448</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="N24" t="n">
-        <v>4593.992910081894</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="O24" t="n">
-        <v>4870.998205338185</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P24" t="n">
-        <v>4870.998205338185</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q24" t="n">
-        <v>4870.998205338185</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R24" t="n">
-        <v>4870.998205338185</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="S24" t="n">
-        <v>4764.727353901732</v>
+        <v>2031.366932161359</v>
       </c>
       <c r="T24" t="n">
-        <v>4605.758549501928</v>
+        <v>1872.398127761555</v>
       </c>
       <c r="U24" t="n">
-        <v>4408.413827749177</v>
+        <v>1675.053406008803</v>
       </c>
       <c r="V24" t="n">
-        <v>4194.70230074221</v>
+        <v>1461.341879001837</v>
       </c>
       <c r="W24" t="n">
-        <v>3981.469132478539</v>
+        <v>1248.108710738165</v>
       </c>
       <c r="X24" t="n">
-        <v>3805.143150617432</v>
+        <v>1071.782728877058</v>
       </c>
       <c r="Y24" t="n">
-        <v>3645.741190981262</v>
+        <v>912.3807692408881</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="C25" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="D25" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="E25" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="F25" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G25" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H25" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I25" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J25" t="n">
         <v>116.8792779475706</v>
@@ -6153,10 +6153,10 @@
         <v>280.267281314263</v>
       </c>
       <c r="L25" t="n">
-        <v>551.4710044025715</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M25" t="n">
-        <v>852.656309288865</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N25" t="n">
         <v>1145.132879486175</v>
@@ -6171,28 +6171,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R25" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S25" t="n">
-        <v>1435.389185958427</v>
+        <v>1598.430055899218</v>
       </c>
       <c r="T25" t="n">
-        <v>1196.171987275931</v>
+        <v>1359.212857216722</v>
       </c>
       <c r="U25" t="n">
-        <v>913.3780722519373</v>
+        <v>1076.418942192729</v>
       </c>
       <c r="V25" t="n">
-        <v>639.4923271914593</v>
+        <v>802.5331971322504</v>
       </c>
       <c r="W25" t="n">
-        <v>360.4226627003336</v>
+        <v>523.4635326411247</v>
       </c>
       <c r="X25" t="n">
-        <v>211.4325303271773</v>
+        <v>285.1196705008081</v>
       </c>
       <c r="Y25" t="n">
-        <v>211.4325303271773</v>
+        <v>285.1196705008081</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2447.103198462591</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C26" t="n">
-        <v>2036.978607775861</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D26" t="n">
-        <v>1632.514677868921</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E26" t="n">
-        <v>1218.174462385818</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F26" t="n">
-        <v>815.1121921875749</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G26" t="n">
-        <v>406.5568918143014</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H26" t="n">
-        <v>97.41996410676371</v>
+        <v>177.1027713887331</v>
       </c>
       <c r="I26" t="n">
         <v>97.41996410676371</v>
       </c>
       <c r="J26" t="n">
-        <v>365.9950463732492</v>
+        <v>365.99504637325</v>
       </c>
       <c r="K26" t="n">
-        <v>925.7208439477944</v>
+        <v>925.7208439477952</v>
       </c>
       <c r="L26" t="n">
-        <v>1665.067141547875</v>
+        <v>1665.067141547876</v>
       </c>
       <c r="M26" t="n">
-        <v>2471.155711445508</v>
+        <v>2471.155711445509</v>
       </c>
       <c r="N26" t="n">
-        <v>3254.588416372257</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O26" t="n">
-        <v>3926.78508420296</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P26" t="n">
         <v>4480.322041270213</v>
@@ -6253,25 +6253,25 @@
         <v>4870.998205338185</v>
       </c>
       <c r="S26" t="n">
-        <v>4870.998205338185</v>
+        <v>4739.658996968401</v>
       </c>
       <c r="T26" t="n">
-        <v>4649.548957580167</v>
+        <v>4739.658996968401</v>
       </c>
       <c r="U26" t="n">
-        <v>4392.502304538389</v>
+        <v>4482.612343926623</v>
       </c>
       <c r="V26" t="n">
-        <v>4042.664749874869</v>
+        <v>4140.315699004907</v>
       </c>
       <c r="W26" t="n">
-        <v>3658.904449010038</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X26" t="n">
-        <v>3258.26105117899</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y26" t="n">
-        <v>2857.32437812708</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J27" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K27" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L27" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M27" t="n">
-        <v>963.3815547230743</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="N27" t="n">
-        <v>1860.632488341521</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="O27" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P27" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q27" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R27" t="n">
         <v>2137.637783597812</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>576.9255503458206</v>
+        <v>594.0552775661365</v>
       </c>
       <c r="C28" t="n">
-        <v>405.8321779075371</v>
+        <v>422.961905127853</v>
       </c>
       <c r="D28" t="n">
-        <v>246.3375332304471</v>
+        <v>422.961905127853</v>
       </c>
       <c r="E28" t="n">
-        <v>246.3375332304471</v>
+        <v>262.0510899961724</v>
       </c>
       <c r="F28" t="n">
-        <v>246.3375332304471</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G28" t="n">
-        <v>246.3375332304471</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H28" t="n">
         <v>97.41996410676371</v>
@@ -6390,10 +6390,10 @@
         <v>280.267281314263</v>
       </c>
       <c r="L28" t="n">
-        <v>551.4710044025715</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M28" t="n">
-        <v>852.656309288865</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N28" t="n">
         <v>1145.132879486175</v>
@@ -6408,28 +6408,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R28" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S28" t="n">
-        <v>1435.389185958427</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T28" t="n">
-        <v>1196.171987275931</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U28" t="n">
-        <v>913.3780722519373</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="V28" t="n">
-        <v>801.6612489570559</v>
+        <v>1189.109534279456</v>
       </c>
       <c r="W28" t="n">
-        <v>801.6612489570559</v>
+        <v>1189.109534279456</v>
       </c>
       <c r="X28" t="n">
-        <v>801.6612489570559</v>
+        <v>950.7656721391395</v>
       </c>
       <c r="Y28" t="n">
-        <v>576.9255503458206</v>
+        <v>781.7549839601809</v>
       </c>
     </row>
     <row r="29">
@@ -6463,10 +6463,10 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J29" t="n">
-        <v>365.9950463732503</v>
+        <v>365.99504637325</v>
       </c>
       <c r="K29" t="n">
-        <v>925.7208439477957</v>
+        <v>925.7208439477952</v>
       </c>
       <c r="L29" t="n">
         <v>1665.067141547876</v>
@@ -6475,10 +6475,10 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N29" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O29" t="n">
-        <v>3926.78508420296</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P29" t="n">
         <v>4480.322041270213</v>
@@ -6499,13 +6499,13 @@
         <v>4261.163096168604</v>
       </c>
       <c r="V29" t="n">
-        <v>4140.315699004907</v>
+        <v>3911.325541505085</v>
       </c>
       <c r="W29" t="n">
-        <v>3756.555398140076</v>
+        <v>3527.565240640253</v>
       </c>
       <c r="X29" t="n">
-        <v>3355.912000309029</v>
+        <v>3126.921842809206</v>
       </c>
       <c r="Y29" t="n">
         <v>2954.975327257119</v>
@@ -6542,28 +6542,28 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J30" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K30" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L30" t="n">
-        <v>778.2043133443127</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M30" t="n">
-        <v>1644.165903960623</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="N30" t="n">
-        <v>1644.165903960623</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="O30" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P30" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q30" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R30" t="n">
         <v>2137.637783597812</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1051.433210876834</v>
+        <v>422.961905127853</v>
       </c>
       <c r="C31" t="n">
-        <v>880.3398384385505</v>
+        <v>422.961905127853</v>
       </c>
       <c r="D31" t="n">
-        <v>720.8451937614605</v>
+        <v>422.961905127853</v>
       </c>
       <c r="E31" t="n">
-        <v>559.93437862978</v>
+        <v>262.0510899961724</v>
       </c>
       <c r="F31" t="n">
-        <v>395.3032527403712</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G31" t="n">
-        <v>228.1304562137619</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H31" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I31" t="n">
         <v>97.41996410676371</v>
@@ -6627,10 +6627,10 @@
         <v>280.267281314263</v>
       </c>
       <c r="L31" t="n">
-        <v>551.4710044025715</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M31" t="n">
-        <v>852.656309288865</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N31" t="n">
         <v>1145.132879486175</v>
@@ -6648,25 +6648,25 @@
         <v>1702.21247802243</v>
       </c>
       <c r="S31" t="n">
-        <v>1702.21247802243</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="T31" t="n">
-        <v>1702.21247802243</v>
+        <v>1447.905045394524</v>
       </c>
       <c r="U31" t="n">
-        <v>1702.21247802243</v>
+        <v>1165.11113037053</v>
       </c>
       <c r="V31" t="n">
-        <v>1702.21247802243</v>
+        <v>1165.11113037053</v>
       </c>
       <c r="W31" t="n">
-        <v>1702.21247802243</v>
+        <v>886.0414658794048</v>
       </c>
       <c r="X31" t="n">
-        <v>1463.868615882114</v>
+        <v>647.6976037390882</v>
       </c>
       <c r="Y31" t="n">
-        <v>1239.132917270878</v>
+        <v>422.961905127853</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2447.103198462591</v>
+        <v>2315.763990092806</v>
       </c>
       <c r="C32" t="n">
-        <v>2036.978607775861</v>
+        <v>1905.639399406076</v>
       </c>
       <c r="D32" t="n">
-        <v>1632.514677868921</v>
+        <v>1501.175469499137</v>
       </c>
       <c r="E32" t="n">
-        <v>1218.174462385818</v>
+        <v>1086.835254016034</v>
       </c>
       <c r="F32" t="n">
-        <v>797.1440503395056</v>
+        <v>665.8048419697211</v>
       </c>
       <c r="G32" t="n">
-        <v>388.5887499662321</v>
+        <v>257.2495415964476</v>
       </c>
       <c r="H32" t="n">
         <v>97.41996410676371</v>
@@ -6700,10 +6700,10 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J32" t="n">
-        <v>365.9950463732494</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K32" t="n">
-        <v>925.7208439477949</v>
+        <v>925.7208439477954</v>
       </c>
       <c r="L32" t="n">
         <v>1665.067141547876</v>
@@ -6727,25 +6727,25 @@
         <v>4870.998205338185</v>
       </c>
       <c r="S32" t="n">
-        <v>4870.998205338185</v>
+        <v>4739.658996968401</v>
       </c>
       <c r="T32" t="n">
-        <v>4649.548957580167</v>
+        <v>4518.209749210382</v>
       </c>
       <c r="U32" t="n">
-        <v>4392.502304538389</v>
+        <v>4261.163096168604</v>
       </c>
       <c r="V32" t="n">
-        <v>4042.664749874869</v>
+        <v>3911.325541505085</v>
       </c>
       <c r="W32" t="n">
-        <v>3658.904449010038</v>
+        <v>3527.565240640253</v>
       </c>
       <c r="X32" t="n">
-        <v>3258.26105117899</v>
+        <v>3126.921842809206</v>
       </c>
       <c r="Y32" t="n">
-        <v>2857.32437812708</v>
+        <v>2725.985169757296</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J33" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K33" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L33" t="n">
-        <v>374.4252593630551</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M33" t="n">
-        <v>1240.386849979366</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N33" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O33" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P33" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q33" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R33" t="n">
         <v>2137.637783597812</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4220.218938192589</v>
+        <v>498.4778013252302</v>
       </c>
       <c r="C34" t="n">
-        <v>4049.125565754306</v>
+        <v>327.3844288869467</v>
       </c>
       <c r="D34" t="n">
-        <v>3889.630921077216</v>
+        <v>327.3844288869467</v>
       </c>
       <c r="E34" t="n">
-        <v>3728.720105945535</v>
+        <v>166.4736137552662</v>
       </c>
       <c r="F34" t="n">
-        <v>3564.088980056126</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G34" t="n">
-        <v>3415.123260546202</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H34" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I34" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J34" t="n">
-        <v>3285.665005263326</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K34" t="n">
-        <v>3449.053008630018</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L34" t="n">
-        <v>3720.256731718327</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M34" t="n">
-        <v>4021.44203660462</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N34" t="n">
-        <v>4313.91860680193</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O34" t="n">
-        <v>4584.228597795069</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P34" t="n">
-        <v>4799.101990217907</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q34" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R34" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S34" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T34" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="U34" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="V34" t="n">
-        <v>4870.998205338185</v>
+        <v>1428.326732961952</v>
       </c>
       <c r="W34" t="n">
-        <v>4870.998205338185</v>
+        <v>1149.257068470826</v>
       </c>
       <c r="X34" t="n">
-        <v>4632.654343197869</v>
+        <v>910.9132063305099</v>
       </c>
       <c r="Y34" t="n">
-        <v>4407.918644586633</v>
+        <v>686.1775077192746</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2465.07134031066</v>
+        <v>2315.763990092807</v>
       </c>
       <c r="C35" t="n">
-        <v>2054.94674962393</v>
+        <v>1905.639399406077</v>
       </c>
       <c r="D35" t="n">
-        <v>1650.482819716991</v>
+        <v>1501.175469499138</v>
       </c>
       <c r="E35" t="n">
-        <v>1236.142604233887</v>
+        <v>1086.835254016034</v>
       </c>
       <c r="F35" t="n">
-        <v>815.1121921875749</v>
+        <v>815.112192187575</v>
       </c>
       <c r="G35" t="n">
-        <v>406.5568918143014</v>
+        <v>406.5568918143015</v>
       </c>
       <c r="H35" t="n">
         <v>97.41996410676373</v>
@@ -6940,22 +6940,22 @@
         <v>365.9950463732503</v>
       </c>
       <c r="K35" t="n">
-        <v>925.7208439477959</v>
+        <v>925.7208439477949</v>
       </c>
       <c r="L35" t="n">
-        <v>1665.067141547877</v>
+        <v>1665.067141547876</v>
       </c>
       <c r="M35" t="n">
-        <v>2471.15571144551</v>
+        <v>2471.155711445509</v>
       </c>
       <c r="N35" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O35" t="n">
-        <v>3926.785084202962</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P35" t="n">
-        <v>4480.322041270215</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q35" t="n">
         <v>4819.791607344925</v>
@@ -6964,25 +6964,25 @@
         <v>4870.998205338186</v>
       </c>
       <c r="S35" t="n">
-        <v>4870.998205338186</v>
+        <v>4739.658996968402</v>
       </c>
       <c r="T35" t="n">
-        <v>4667.517099428236</v>
+        <v>4518.209749210383</v>
       </c>
       <c r="U35" t="n">
-        <v>4410.470446386458</v>
+        <v>4261.163096168605</v>
       </c>
       <c r="V35" t="n">
-        <v>4060.632891722939</v>
+        <v>3911.325541505086</v>
       </c>
       <c r="W35" t="n">
-        <v>3676.872590858107</v>
+        <v>3527.565240640254</v>
       </c>
       <c r="X35" t="n">
-        <v>3276.22919302706</v>
+        <v>3126.921842809207</v>
       </c>
       <c r="Y35" t="n">
-        <v>2875.29251997515</v>
+        <v>2725.985169757297</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>97.41996410676373</v>
       </c>
       <c r="K36" t="n">
-        <v>97.41996410676373</v>
+        <v>567.8743197625565</v>
       </c>
       <c r="L36" t="n">
-        <v>97.41996410676373</v>
+        <v>1248.658669000105</v>
       </c>
       <c r="M36" t="n">
-        <v>963.3815547230743</v>
+        <v>1248.658669000105</v>
       </c>
       <c r="N36" t="n">
-        <v>1860.632488341521</v>
+        <v>1558.609758636149</v>
       </c>
       <c r="O36" t="n">
-        <v>2137.637783597812</v>
+        <v>1558.609758636149</v>
       </c>
       <c r="P36" t="n">
         <v>2137.637783597812</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4089.508446085592</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="C37" t="n">
-        <v>3918.415073647309</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="D37" t="n">
-        <v>3758.920428970219</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="E37" t="n">
-        <v>3598.009613838538</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="F37" t="n">
-        <v>3433.37848794913</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G37" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H37" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I37" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J37" t="n">
-        <v>3285.665005263327</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K37" t="n">
-        <v>3449.053008630019</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L37" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M37" t="n">
-        <v>4021.442036604621</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N37" t="n">
-        <v>4313.918606801931</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O37" t="n">
-        <v>4584.22859779507</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P37" t="n">
-        <v>4799.101990217908</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q37" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R37" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S37" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T37" t="n">
-        <v>4870.998205338186</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U37" t="n">
-        <v>4870.998205338186</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V37" t="n">
-        <v>4870.998205338186</v>
+        <v>906.3156192554627</v>
       </c>
       <c r="W37" t="n">
-        <v>4591.928540847061</v>
+        <v>627.2459547643371</v>
       </c>
       <c r="X37" t="n">
-        <v>4501.943851090872</v>
+        <v>388.9020926240204</v>
       </c>
       <c r="Y37" t="n">
-        <v>4277.208152479637</v>
+        <v>164.1663940127851</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2315.763990092807</v>
+        <v>2537.213237850827</v>
       </c>
       <c r="C38" t="n">
-        <v>1905.639399406077</v>
+        <v>2127.088647164097</v>
       </c>
       <c r="D38" t="n">
-        <v>1501.175469499138</v>
+        <v>1722.624717257157</v>
       </c>
       <c r="E38" t="n">
-        <v>1086.835254016034</v>
+        <v>1308.284501774054</v>
       </c>
       <c r="F38" t="n">
-        <v>665.804841969722</v>
+        <v>887.2540897277418</v>
       </c>
       <c r="G38" t="n">
-        <v>257.2495415964485</v>
+        <v>478.6987893544682</v>
       </c>
       <c r="H38" t="n">
         <v>177.1027713887331</v>
@@ -7174,25 +7174,25 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J38" t="n">
-        <v>365.9950463732501</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K38" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477949</v>
       </c>
       <c r="L38" t="n">
-        <v>1665.067141547877</v>
+        <v>1665.067141547876</v>
       </c>
       <c r="M38" t="n">
-        <v>2471.15571144551</v>
+        <v>2471.155711445509</v>
       </c>
       <c r="N38" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O38" t="n">
         <v>3926.785084202961</v>
       </c>
       <c r="P38" t="n">
-        <v>4480.322041270215</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q38" t="n">
         <v>4819.791607344925</v>
@@ -7204,22 +7204,22 @@
         <v>4739.658996968402</v>
       </c>
       <c r="T38" t="n">
-        <v>4518.209749210383</v>
+        <v>4739.658996968402</v>
       </c>
       <c r="U38" t="n">
-        <v>4261.163096168605</v>
+        <v>4482.612343926624</v>
       </c>
       <c r="V38" t="n">
-        <v>3911.325541505086</v>
+        <v>4132.774789263105</v>
       </c>
       <c r="W38" t="n">
-        <v>3527.565240640254</v>
+        <v>3749.014488398273</v>
       </c>
       <c r="X38" t="n">
-        <v>3126.921842809207</v>
+        <v>3348.371090567226</v>
       </c>
       <c r="Y38" t="n">
-        <v>2725.985169757297</v>
+        <v>2947.434417515316</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J39" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K39" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L39" t="n">
-        <v>97.41996410676373</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M39" t="n">
-        <v>963.3815547230744</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N39" t="n">
-        <v>1860.632488341521</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O39" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P39" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q39" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R39" t="n">
         <v>2137.637783597812</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.41996410676373</v>
+        <v>543.2364527431954</v>
       </c>
       <c r="C40" t="n">
-        <v>97.41996410676373</v>
+        <v>543.2364527431954</v>
       </c>
       <c r="D40" t="n">
-        <v>97.41996410676373</v>
+        <v>543.2364527431954</v>
       </c>
       <c r="E40" t="n">
-        <v>97.41996410676373</v>
+        <v>543.2364527431954</v>
       </c>
       <c r="F40" t="n">
-        <v>97.41996410676373</v>
+        <v>378.6053268537867</v>
       </c>
       <c r="G40" t="n">
-        <v>97.41996410676373</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="H40" t="n">
-        <v>97.41996410676373</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I40" t="n">
         <v>97.41996410676373</v>
       </c>
       <c r="J40" t="n">
-        <v>116.8792779475707</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K40" t="n">
-        <v>280.2672813142631</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L40" t="n">
-        <v>551.4710044025715</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M40" t="n">
-        <v>852.656309288865</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N40" t="n">
         <v>1145.132879486175</v>
@@ -7356,28 +7356,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R40" t="n">
-        <v>1620.428692731034</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S40" t="n">
-        <v>1435.389185958427</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="T40" t="n">
-        <v>1196.171987275931</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="U40" t="n">
-        <v>913.3780722519375</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="V40" t="n">
-        <v>639.4923271914595</v>
+        <v>1473.085384379917</v>
       </c>
       <c r="W40" t="n">
-        <v>360.4226627003338</v>
+        <v>1194.015719888792</v>
       </c>
       <c r="X40" t="n">
-        <v>122.0788005600172</v>
+        <v>955.6718577484751</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.41996410676373</v>
+        <v>730.9361591372398</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2544.754147592629</v>
+        <v>2315.763990092806</v>
       </c>
       <c r="C41" t="n">
-        <v>2134.629556905899</v>
+        <v>1905.639399406076</v>
       </c>
       <c r="D41" t="n">
-        <v>1730.16562699896</v>
+        <v>1501.175469499137</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.825411515857</v>
+        <v>1086.835254016034</v>
       </c>
       <c r="F41" t="n">
         <v>894.7949994695443</v>
@@ -7408,13 +7408,13 @@
         <v>177.1027713887331</v>
       </c>
       <c r="I41" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J41" t="n">
-        <v>365.9950463732498</v>
+        <v>365.99504637325</v>
       </c>
       <c r="K41" t="n">
-        <v>925.7208439477951</v>
+        <v>925.7208439477953</v>
       </c>
       <c r="L41" t="n">
         <v>1665.067141547876</v>
@@ -7426,37 +7426,37 @@
         <v>3254.588416372258</v>
       </c>
       <c r="O41" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.78508420296</v>
       </c>
       <c r="P41" t="n">
         <v>4480.322041270214</v>
       </c>
       <c r="Q41" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R41" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S41" t="n">
-        <v>4739.658996968402</v>
+        <v>4739.658996968401</v>
       </c>
       <c r="T41" t="n">
-        <v>4518.209749210383</v>
+        <v>4518.209749210382</v>
       </c>
       <c r="U41" t="n">
-        <v>4490.153253668426</v>
+        <v>4261.163096168604</v>
       </c>
       <c r="V41" t="n">
-        <v>4140.315699004907</v>
+        <v>3911.325541505085</v>
       </c>
       <c r="W41" t="n">
-        <v>3756.555398140076</v>
+        <v>3527.565240640253</v>
       </c>
       <c r="X41" t="n">
-        <v>3355.912000309029</v>
+        <v>3126.921842809206</v>
       </c>
       <c r="Y41" t="n">
-        <v>2954.975327257119</v>
+        <v>2725.985169757296</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I42" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J42" t="n">
-        <v>298.803175282419</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="K42" t="n">
-        <v>769.2575309382119</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="L42" t="n">
-        <v>1197.185907129205</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="M42" t="n">
-        <v>1197.185907129205</v>
+        <v>963.3815547230743</v>
       </c>
       <c r="N42" t="n">
-        <v>1197.185907129205</v>
+        <v>1860.632488341521</v>
       </c>
       <c r="O42" t="n">
-        <v>1197.185907129205</v>
+        <v>1860.632488341521</v>
       </c>
       <c r="P42" t="n">
-        <v>1776.213932090868</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="Q42" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R42" t="n">
         <v>2137.637783597812</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>547.1570286548695</v>
+        <v>268.5133365450472</v>
       </c>
       <c r="C43" t="n">
-        <v>376.063656216586</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="D43" t="n">
-        <v>376.063656216586</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="E43" t="n">
-        <v>376.063656216586</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="F43" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G43" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H43" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I43" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J43" t="n">
-        <v>116.8792779475707</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K43" t="n">
-        <v>280.2672813142631</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L43" t="n">
-        <v>551.4710044025715</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M43" t="n">
-        <v>852.656309288865</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N43" t="n">
         <v>1145.132879486175</v>
@@ -7599,22 +7599,22 @@
         <v>1702.21247802243</v>
       </c>
       <c r="T43" t="n">
-        <v>1702.21247802243</v>
+        <v>1472.248013242247</v>
       </c>
       <c r="U43" t="n">
-        <v>1702.21247802243</v>
+        <v>1472.248013242247</v>
       </c>
       <c r="V43" t="n">
-        <v>1477.005960291591</v>
+        <v>1198.362268181769</v>
       </c>
       <c r="W43" t="n">
-        <v>1197.936295800466</v>
+        <v>919.2926036906435</v>
       </c>
       <c r="X43" t="n">
-        <v>959.5924336601491</v>
+        <v>680.9487415503269</v>
       </c>
       <c r="Y43" t="n">
-        <v>734.8567350489138</v>
+        <v>456.2130429390916</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>177.1027713887331</v>
       </c>
       <c r="I44" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J44" t="n">
         <v>365.9950463732501</v>
       </c>
       <c r="K44" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477952</v>
       </c>
       <c r="L44" t="n">
         <v>1665.067141547876</v>
@@ -7672,22 +7672,22 @@
         <v>4819.791607344925</v>
       </c>
       <c r="R44" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S44" t="n">
-        <v>4739.658996968402</v>
+        <v>4739.658996968401</v>
       </c>
       <c r="T44" t="n">
-        <v>4518.209749210383</v>
+        <v>4518.209749210382</v>
       </c>
       <c r="U44" t="n">
-        <v>4261.163096168605</v>
+        <v>4261.163096168604</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.325541505086</v>
+        <v>3911.325541505085</v>
       </c>
       <c r="W44" t="n">
-        <v>3527.565240640254</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X44" t="n">
         <v>3355.912000309029</v>
@@ -7724,31 +7724,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I45" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J45" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K45" t="n">
-        <v>567.8743197625565</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L45" t="n">
-        <v>1248.658669000106</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M45" t="n">
-        <v>1248.658669000106</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="N45" t="n">
-        <v>1248.658669000106</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="O45" t="n">
-        <v>1248.658669000106</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P45" t="n">
-        <v>1827.686693961769</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q45" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R45" t="n">
         <v>2137.637783597812</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1069.640287893519</v>
+        <v>592.6391071115459</v>
       </c>
       <c r="C46" t="n">
-        <v>898.5469154552359</v>
+        <v>421.5457346732624</v>
       </c>
       <c r="D46" t="n">
-        <v>739.0522707781458</v>
+        <v>262.0510899961724</v>
       </c>
       <c r="E46" t="n">
-        <v>578.1414556464653</v>
+        <v>262.0510899961724</v>
       </c>
       <c r="F46" t="n">
-        <v>413.5103297570565</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G46" t="n">
-        <v>246.3375332304472</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H46" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I46" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J46" t="n">
-        <v>116.8792779475707</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K46" t="n">
-        <v>280.2672813142631</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L46" t="n">
-        <v>551.4710044025715</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M46" t="n">
-        <v>852.656309288865</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N46" t="n">
         <v>1145.132879486175</v>
@@ -7833,25 +7833,25 @@
         <v>1702.21247802243</v>
       </c>
       <c r="S46" t="n">
-        <v>1702.21247802243</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="T46" t="n">
-        <v>1702.21247802243</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="U46" t="n">
-        <v>1702.21247802243</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="V46" t="n">
-        <v>1702.21247802243</v>
+        <v>1243.418374257142</v>
       </c>
       <c r="W46" t="n">
-        <v>1702.21247802243</v>
+        <v>1243.418374257142</v>
       </c>
       <c r="X46" t="n">
-        <v>1482.075692898799</v>
+        <v>1005.074512116826</v>
       </c>
       <c r="Y46" t="n">
-        <v>1257.339994287564</v>
+        <v>780.3388135055902</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>611.1999600432426</v>
@@ -7987,22 +7987,22 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P2" t="n">
-        <v>594.6194560602019</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,19 +8060,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599696</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>498.2302468367832</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>496.3946935832878</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>553.1935596277625</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8303,22 +8303,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>425.4271248393441</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>394.6973592394724</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>594.1598684051008</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8537,22 +8537,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>557.0846165901664</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>200.7852390175284</v>
       </c>
       <c r="O9" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8698,7 +8698,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N11" t="n">
         <v>853.701196452193</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8774,13 +8774,13 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>398.595458917175</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>140.68600649612</v>
       </c>
       <c r="O12" t="n">
         <v>57.751479</v>
@@ -8789,10 +8789,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>601.0963663600584</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,22 +9245,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>429.3564034215989</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9479,7 +9479,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>516.2361426485535</v>
@@ -9494,7 +9494,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>743.7439864875635</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P21" t="n">
         <v>621.6393243851574</v>
@@ -9503,7 +9503,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>42.71231595856358</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>41.02972279421731</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>36.21939520654514</v>
+        <v>36.21939520654517</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978729</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>29.3622403565494</v>
       </c>
       <c r="O24" t="n">
-        <v>315.7539583063243</v>
+        <v>432.6543842302063</v>
       </c>
       <c r="P24" t="n">
-        <v>36.76253149458874</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.99626817861589</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>53.31116889588058</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>330.0765928158872</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
         <v>632.7318453389136</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>42.71231595856358</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>41.02972279421731</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>36.21939520654514</v>
+        <v>36.21939520654517</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978729</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>29.3622403565494</v>
       </c>
       <c r="O27" t="n">
-        <v>315.7539583063248</v>
+        <v>432.6543842302063</v>
       </c>
       <c r="P27" t="n">
-        <v>36.76253149458874</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.99626817861589</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>53.31116889588058</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>42.71231595856358</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>41.02972279421731</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>36.21939520654517</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978729</v>
       </c>
       <c r="N30" t="n">
-        <v>29.36224035654935</v>
+        <v>29.3622403565494</v>
       </c>
       <c r="O30" t="n">
-        <v>534.4070738425849</v>
+        <v>432.6543842302063</v>
       </c>
       <c r="P30" t="n">
-        <v>36.76253149458874</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.99626817861589</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>53.31116889588058</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>42.71231595856358</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>41.02972279421731</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>316.0227237482537</v>
+        <v>36.21939520654517</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>431.0513615153774</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>29.3622403565494</v>
       </c>
       <c r="O33" t="n">
-        <v>35.95062976461621</v>
+        <v>35.95062976461625</v>
       </c>
       <c r="P33" t="n">
-        <v>36.76253149458874</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.99626817861589</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>53.31116889588058</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>42.71231595856358</v>
+        <v>42.71231595856359</v>
       </c>
       <c r="K36" t="n">
-        <v>41.02972279421731</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>36.21939520654514</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978729</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>342.4441490798261</v>
       </c>
       <c r="O36" t="n">
-        <v>315.7539583063248</v>
+        <v>35.95062976461625</v>
       </c>
       <c r="P36" t="n">
-        <v>36.76253149458874</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.99626817861589</v>
+        <v>44.99626817861591</v>
       </c>
       <c r="R36" t="n">
-        <v>53.31116889588058</v>
+        <v>53.3111688958806</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>42.71231595856355</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>41.02972279421726</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>36.21939520654507</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978729</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>29.3622403565494</v>
       </c>
       <c r="O39" t="n">
-        <v>315.7539583063246</v>
+        <v>35.95062976461625</v>
       </c>
       <c r="P39" t="n">
-        <v>36.76253149458869</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.99626817861586</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>53.31116889588057</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.0765928158877</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>42.71231595856359</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>41.02972279421733</v>
       </c>
       <c r="L42" t="n">
-        <v>468.4702802479526</v>
+        <v>36.21939520654516</v>
       </c>
       <c r="M42" t="n">
-        <v>34.34760704978717</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>29.36224035654928</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>35.95062976461614</v>
+        <v>35.95062976461624</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>281.0187294604798</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>44.99626817861591</v>
       </c>
       <c r="R42" t="n">
-        <v>53.31116889588057</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920609</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>42.71231595856355</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>36.21939520654516</v>
       </c>
       <c r="M45" t="n">
-        <v>34.34760704978717</v>
+        <v>34.34760704978728</v>
       </c>
       <c r="N45" t="n">
-        <v>29.36224035654928</v>
+        <v>29.36224035654939</v>
       </c>
       <c r="O45" t="n">
-        <v>35.95062976461614</v>
+        <v>432.6543842302063</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>358.0781769018923</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>53.31116889588057</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>308.5558614412301</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>36.36515802722607</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
@@ -23424,7 +23424,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>74.04738088901499</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>42.06483528720065</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>96.14494677818598</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -23667,7 +23667,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>140.1500085398324</v>
       </c>
     </row>
     <row r="17">
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>137.0114616263633</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>54.06597461814459</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.0370065608983</v>
+        <v>58.99231510383613</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>49.19646844041357</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>356.9958808389729</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>75.92257091904777</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>143.2832668079638</v>
       </c>
     </row>
     <row r="23">
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>17.78846042958861</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>226.7002559248237</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -24384,7 +24384,7 @@
         <v>147.4283934324466</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>80.44451380290052</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>88.46019246948867</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>17.78846042958861</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>7.465500644385713</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5010685613433</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I28" t="n">
         <v>112.8724405582094</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V28" t="n">
-        <v>160.5472325479407</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>55.16776032795391</v>
       </c>
     </row>
     <row r="29">
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>226.7002559248243</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>226.7002559248247</v>
       </c>
     </row>
     <row r="30">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H31" t="n">
-        <v>130.8974468047278</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>80.96594743848279</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S31" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>236.8250266956711</v>
+        <v>168.2497800989245</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>17.78846042958861</v>
+        <v>147.8142767156753</v>
       </c>
       <c r="I32" t="n">
         <v>78.8859792091497</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>94.62170147849722</v>
       </c>
       <c r="G34" t="n">
-        <v>18.02500624651859</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I34" t="n">
         <v>112.8724405582094</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>80.96594743848279</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S34" t="n">
         <v>183.1891117048806</v>
@@ -25134,10 +25134,10 @@
         <v>279.9659758737533</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>147.8142767156745</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>17.7884604295883</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>119.7437437231428</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H37" t="n">
         <v>147.4283934324466</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>80.96594743848279</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S37" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T37" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>146.875580660287</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>226.7002559248241</v>
+        <v>7.465500644384633</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -25560,16 +25560,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>147.4283934324466</v>
       </c>
       <c r="I40" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>227.5001766086662</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>198.076093536402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>226.700255924825</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>226.7002559248234</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.5010685613433</v>
@@ -25806,7 +25806,7 @@
         <v>147.4283934324466</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>80.96594743848279</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S43" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T43" t="n">
-        <v>236.8250266956711</v>
+        <v>9.160206563290103</v>
       </c>
       <c r="U43" t="n">
         <v>279.9659758737533</v>
       </c>
       <c r="V43" t="n">
-        <v>48.19243505634279</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>226.7002559248246</v>
       </c>
       <c r="X44" t="n">
-        <v>226.7002559248239</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I46" t="n">
         <v>112.8724405582094</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>80.96594743848279</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S46" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>236.8250266956711</v>
@@ -26082,13 +26082,13 @@
         <v>279.9659758737533</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0.1298365871189162</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>18.02500624651839</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>740072.9767954766</v>
+        <v>740072.9767954767</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>740072.9767954766</v>
+        <v>740072.9767954767</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>740072.9767954766</v>
+        <v>740072.9767954765</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>740072.9767954766</v>
+        <v>740072.9767954767</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>760657.2497147032</v>
+        <v>760657.2497147033</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>760657.2497147031</v>
+        <v>760657.2497147032</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>760657.2497147032</v>
+        <v>760657.2497147031</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>760657.2497147031</v>
+        <v>760657.2497147032</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>760657.2497147031</v>
+        <v>760657.2497147033</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>760657.2497147032</v>
+        <v>760657.2497147033</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>760657.2497147033</v>
+        <v>760657.2497147032</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>760657.2497147031</v>
+        <v>760657.2497147032</v>
       </c>
     </row>
   </sheetData>
@@ -26319,28 +26319,28 @@
         <v>407205.9825811423</v>
       </c>
       <c r="D2" t="n">
-        <v>407205.9825811422</v>
+        <v>407205.9825811423</v>
       </c>
       <c r="E2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="F2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="G2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="H2" t="n">
-        <v>362060.8344188674</v>
+        <v>362060.8344188676</v>
       </c>
       <c r="I2" t="n">
         <v>374038.6043892786</v>
       </c>
       <c r="J2" t="n">
-        <v>374038.6043892784</v>
+        <v>374038.6043892785</v>
       </c>
       <c r="K2" t="n">
-        <v>374038.6043892786</v>
+        <v>374038.6043892785</v>
       </c>
       <c r="L2" t="n">
         <v>374038.6043892785</v>
@@ -26349,13 +26349,13 @@
         <v>374038.6043892786</v>
       </c>
       <c r="N2" t="n">
-        <v>374038.6043892783</v>
+        <v>374038.6043892786</v>
       </c>
       <c r="O2" t="n">
         <v>374038.6043892787</v>
       </c>
       <c r="P2" t="n">
-        <v>374038.6043892785</v>
+        <v>374038.6043892783</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>45948.62261588477</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>213059.5462795911</v>
       </c>
       <c r="C4" t="n">
-        <v>213059.546279591</v>
+        <v>213059.5462795911</v>
       </c>
       <c r="D4" t="n">
         <v>213059.5462795911</v>
       </c>
       <c r="E4" t="n">
-        <v>89101.60277166062</v>
+        <v>89101.60277166063</v>
       </c>
       <c r="F4" t="n">
         <v>89101.60277166063</v>
@@ -26447,7 +26447,7 @@
         <v>88152.90891079398</v>
       </c>
       <c r="L4" t="n">
-        <v>88152.90891079399</v>
+        <v>88152.90891079398</v>
       </c>
       <c r="M4" t="n">
         <v>88152.90891079398</v>
@@ -26459,7 +26459,7 @@
         <v>88152.90891079398</v>
       </c>
       <c r="P4" t="n">
-        <v>88152.90891079399</v>
+        <v>88152.90891079398</v>
       </c>
     </row>
     <row r="5">
@@ -26490,7 +26490,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="I5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868564</v>
       </c>
       <c r="J5" t="n">
         <v>74967.83978868563</v>
@@ -26508,10 +26508,10 @@
         <v>74967.83978868564</v>
       </c>
       <c r="O5" t="n">
-        <v>74967.83978868564</v>
+        <v>74967.83978868563</v>
       </c>
       <c r="P5" t="n">
-        <v>74967.83978868564</v>
+        <v>74967.83978868563</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-46178.13867006032</v>
+        <v>-46178.13867006035</v>
       </c>
       <c r="C6" t="n">
+        <v>128777.3712230536</v>
+      </c>
+      <c r="D6" t="n">
         <v>128777.3712230537</v>
       </c>
-      <c r="D6" t="n">
-        <v>128777.3712230536</v>
-      </c>
       <c r="E6" t="n">
-        <v>9964.258502890385</v>
+        <v>9783.677910241124</v>
       </c>
       <c r="F6" t="n">
-        <v>202094.0214023336</v>
+        <v>201913.4408096844</v>
       </c>
       <c r="G6" t="n">
-        <v>202094.0214023335</v>
+        <v>201913.4408096844</v>
       </c>
       <c r="H6" t="n">
-        <v>202094.0214023335</v>
+        <v>201913.4408096845</v>
       </c>
       <c r="I6" t="n">
-        <v>164969.2330739142</v>
+        <v>164836.5635611468</v>
       </c>
       <c r="J6" t="n">
-        <v>74323.05488390381</v>
+        <v>74190.38537113646</v>
       </c>
       <c r="K6" t="n">
-        <v>210917.855689799</v>
+        <v>210785.1861770314</v>
       </c>
       <c r="L6" t="n">
-        <v>210917.8556897989</v>
+        <v>210785.1861770314</v>
       </c>
       <c r="M6" t="n">
-        <v>50559.40518911619</v>
+        <v>50426.73567634874</v>
       </c>
       <c r="N6" t="n">
-        <v>210917.8556897987</v>
+        <v>210785.1861770315</v>
       </c>
       <c r="O6" t="n">
-        <v>210917.8556897991</v>
+        <v>210785.1861770317</v>
       </c>
       <c r="P6" t="n">
-        <v>210917.8556897988</v>
+        <v>210785.1861770313</v>
       </c>
     </row>
   </sheetData>
@@ -26758,28 +26758,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812877</v>
+        <v>42.59940676812869</v>
       </c>
       <c r="J3" t="n">
-        <v>42.59940676812877</v>
+        <v>42.59940676812869</v>
       </c>
       <c r="K3" t="n">
-        <v>42.59940676812877</v>
+        <v>42.59940676812869</v>
       </c>
       <c r="L3" t="n">
-        <v>42.59940676812877</v>
+        <v>42.59940676812869</v>
       </c>
       <c r="M3" t="n">
-        <v>42.59940676812877</v>
+        <v>42.59940676812869</v>
       </c>
       <c r="N3" t="n">
-        <v>42.5994067681289</v>
+        <v>42.59940676812869</v>
       </c>
       <c r="O3" t="n">
-        <v>42.5994067681289</v>
+        <v>42.59940676812871</v>
       </c>
       <c r="P3" t="n">
-        <v>42.5994067681289</v>
+        <v>42.59940676812871</v>
       </c>
     </row>
     <row r="4">
@@ -26810,7 +26810,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="I4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
       <c r="J4" t="n">
         <v>1217.749551334546</v>
@@ -26828,10 +26828,10 @@
         <v>1217.749551334547</v>
       </c>
       <c r="O4" t="n">
-        <v>1217.749551334547</v>
+        <v>1217.749551334546</v>
       </c>
       <c r="P4" t="n">
-        <v>1217.749551334547</v>
+        <v>1217.749551334546</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812877</v>
+        <v>42.59940676812869</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>643.4826507627592</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>52.20333020176145</v>
+        <v>52.20333020176167</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700253</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627592</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>399.9010306153816</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>11.48287933845668</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -27548,13 +27548,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>134.9699070214185</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>86.11522480836776</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27599,10 +27599,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27618,25 +27618,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>148.7604501903771</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>38.44079733370694</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27776,13 +27776,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>128.8323376019698</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
@@ -27836,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>221.5560597773206</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>383.8580275794145</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>18.19522188379989</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>82.68617307340649</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>221.5920803845235</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1712538965552914</v>
+        <v>0.1712538965552911</v>
       </c>
       <c r="H23" t="n">
-        <v>1.753853968096878</v>
+        <v>1.753853968096875</v>
       </c>
       <c r="I23" t="n">
-        <v>6.602265846947878</v>
+        <v>6.602265846947866</v>
       </c>
       <c r="J23" t="n">
-        <v>14.53496040275968</v>
+        <v>14.53496040275965</v>
       </c>
       <c r="K23" t="n">
-        <v>21.78413784394516</v>
+        <v>21.78413784394512</v>
       </c>
       <c r="L23" t="n">
-        <v>27.02514928064917</v>
+        <v>27.02514928064912</v>
       </c>
       <c r="M23" t="n">
-        <v>30.07068576351433</v>
+        <v>30.07068576351428</v>
       </c>
       <c r="N23" t="n">
-        <v>30.55726089710205</v>
+        <v>30.557260897102</v>
       </c>
       <c r="O23" t="n">
-        <v>28.85435496323037</v>
+        <v>28.85435496323032</v>
       </c>
       <c r="P23" t="n">
-        <v>24.62652439202162</v>
+        <v>24.62652439202157</v>
       </c>
       <c r="Q23" t="n">
-        <v>18.49349422163523</v>
+        <v>18.4934942216352</v>
       </c>
       <c r="R23" t="n">
-        <v>10.75752757949133</v>
+        <v>10.75752757949131</v>
       </c>
       <c r="S23" t="n">
-        <v>3.902448167753707</v>
+        <v>3.9024481677537</v>
       </c>
       <c r="T23" t="n">
-        <v>0.7496639321707884</v>
+        <v>0.7496639321707871</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01370031172442331</v>
+        <v>0.01370031172442328</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09162891267106943</v>
+        <v>0.09162891267106926</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8849423934284865</v>
+        <v>0.8849423934284848</v>
       </c>
       <c r="I24" t="n">
-        <v>3.154767388017083</v>
+        <v>3.154767388017078</v>
       </c>
       <c r="J24" t="n">
-        <v>8.656922841436433</v>
+        <v>8.656922841436417</v>
       </c>
       <c r="K24" t="n">
-        <v>14.79605999039808</v>
+        <v>14.79605999039806</v>
       </c>
       <c r="L24" t="n">
-        <v>19.89512860430391</v>
+        <v>19.89512860430388</v>
       </c>
       <c r="M24" t="n">
-        <v>23.21667668863017</v>
+        <v>23.21667668863013</v>
       </c>
       <c r="N24" t="n">
-        <v>23.83115303720064</v>
+        <v>23.8311530372006</v>
       </c>
       <c r="O24" t="n">
-        <v>21.80084923538378</v>
+        <v>21.80084923538374</v>
       </c>
       <c r="P24" t="n">
-        <v>17.49710350821501</v>
+        <v>17.49710350821497</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.69635032622283</v>
+        <v>11.69635032622281</v>
       </c>
       <c r="R24" t="n">
-        <v>5.689030209524821</v>
+        <v>5.689030209524811</v>
       </c>
       <c r="S24" t="n">
-        <v>1.701966864745521</v>
+        <v>1.701966864745518</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3693288190557578</v>
+        <v>0.3693288190557571</v>
       </c>
       <c r="U24" t="n">
-        <v>0.006028217938886148</v>
+        <v>0.006028217938886138</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07681860236875679</v>
+        <v>0.07681860236875664</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6829872101513108</v>
+        <v>0.6829872101513096</v>
       </c>
       <c r="I25" t="n">
-        <v>2.310144878507705</v>
+        <v>2.310144878507701</v>
       </c>
       <c r="J25" t="n">
-        <v>5.431075187471104</v>
+        <v>5.431075187471095</v>
       </c>
       <c r="K25" t="n">
-        <v>8.924924893388287</v>
+        <v>8.924924893388269</v>
       </c>
       <c r="L25" t="n">
-        <v>11.42083111944226</v>
+        <v>11.42083111944224</v>
       </c>
       <c r="M25" t="n">
-        <v>12.04166509676794</v>
+        <v>12.04166509676791</v>
       </c>
       <c r="N25" t="n">
-        <v>11.75534121521167</v>
+        <v>11.75534121521165</v>
       </c>
       <c r="O25" t="n">
-        <v>10.85796026935846</v>
+        <v>10.85796026935844</v>
       </c>
       <c r="P25" t="n">
-        <v>9.290860781035816</v>
+        <v>9.2908607810358</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.432510421987444</v>
+        <v>6.432510421987431</v>
       </c>
       <c r="R25" t="n">
-        <v>3.454043702871554</v>
+        <v>3.454043702871548</v>
       </c>
       <c r="S25" t="n">
-        <v>1.338738734008243</v>
+        <v>1.33873873400824</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3282249373937789</v>
+        <v>0.3282249373937783</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004190105583750375</v>
+        <v>0.004190105583750367</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1712538965552914</v>
+        <v>0.1712538965552911</v>
       </c>
       <c r="H26" t="n">
-        <v>1.753853968096878</v>
+        <v>1.753853968096875</v>
       </c>
       <c r="I26" t="n">
-        <v>6.602265846947878</v>
+        <v>6.602265846947866</v>
       </c>
       <c r="J26" t="n">
-        <v>14.53496040275968</v>
+        <v>14.53496040275965</v>
       </c>
       <c r="K26" t="n">
-        <v>21.78413784394516</v>
+        <v>21.78413784394512</v>
       </c>
       <c r="L26" t="n">
-        <v>27.02514928064917</v>
+        <v>27.02514928064912</v>
       </c>
       <c r="M26" t="n">
-        <v>30.07068576351433</v>
+        <v>30.07068576351428</v>
       </c>
       <c r="N26" t="n">
-        <v>30.55726089710205</v>
+        <v>30.557260897102</v>
       </c>
       <c r="O26" t="n">
-        <v>28.85435496323037</v>
+        <v>28.85435496323032</v>
       </c>
       <c r="P26" t="n">
-        <v>24.62652439202162</v>
+        <v>24.62652439202157</v>
       </c>
       <c r="Q26" t="n">
-        <v>18.49349422163523</v>
+        <v>18.4934942216352</v>
       </c>
       <c r="R26" t="n">
-        <v>10.75752757949133</v>
+        <v>10.75752757949131</v>
       </c>
       <c r="S26" t="n">
-        <v>3.902448167753707</v>
+        <v>3.9024481677537</v>
       </c>
       <c r="T26" t="n">
-        <v>0.7496639321707884</v>
+        <v>0.7496639321707871</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01370031172442331</v>
+        <v>0.01370031172442328</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09162891267106943</v>
+        <v>0.09162891267106926</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8849423934284865</v>
+        <v>0.8849423934284848</v>
       </c>
       <c r="I27" t="n">
-        <v>3.154767388017083</v>
+        <v>3.154767388017078</v>
       </c>
       <c r="J27" t="n">
-        <v>8.656922841436433</v>
+        <v>8.656922841436417</v>
       </c>
       <c r="K27" t="n">
-        <v>14.79605999039808</v>
+        <v>14.79605999039806</v>
       </c>
       <c r="L27" t="n">
-        <v>19.89512860430391</v>
+        <v>19.89512860430388</v>
       </c>
       <c r="M27" t="n">
-        <v>23.21667668863017</v>
+        <v>23.21667668863013</v>
       </c>
       <c r="N27" t="n">
-        <v>23.83115303720064</v>
+        <v>23.8311530372006</v>
       </c>
       <c r="O27" t="n">
-        <v>21.80084923538378</v>
+        <v>21.80084923538374</v>
       </c>
       <c r="P27" t="n">
-        <v>17.49710350821501</v>
+        <v>17.49710350821497</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.69635032622283</v>
+        <v>11.69635032622281</v>
       </c>
       <c r="R27" t="n">
-        <v>5.689030209524821</v>
+        <v>5.689030209524811</v>
       </c>
       <c r="S27" t="n">
-        <v>1.701966864745521</v>
+        <v>1.701966864745518</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3693288190557578</v>
+        <v>0.3693288190557571</v>
       </c>
       <c r="U27" t="n">
-        <v>0.006028217938886148</v>
+        <v>0.006028217938886138</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07681860236875679</v>
+        <v>0.07681860236875664</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6829872101513108</v>
+        <v>0.6829872101513096</v>
       </c>
       <c r="I28" t="n">
-        <v>2.310144878507705</v>
+        <v>2.310144878507701</v>
       </c>
       <c r="J28" t="n">
-        <v>5.431075187471104</v>
+        <v>5.431075187471095</v>
       </c>
       <c r="K28" t="n">
-        <v>8.924924893388287</v>
+        <v>8.924924893388269</v>
       </c>
       <c r="L28" t="n">
-        <v>11.42083111944226</v>
+        <v>11.42083111944224</v>
       </c>
       <c r="M28" t="n">
-        <v>12.04166509676794</v>
+        <v>12.04166509676791</v>
       </c>
       <c r="N28" t="n">
-        <v>11.75534121521167</v>
+        <v>11.75534121521165</v>
       </c>
       <c r="O28" t="n">
-        <v>10.85796026935846</v>
+        <v>10.85796026935844</v>
       </c>
       <c r="P28" t="n">
-        <v>9.290860781035816</v>
+        <v>9.2908607810358</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.432510421987444</v>
+        <v>6.432510421987431</v>
       </c>
       <c r="R28" t="n">
-        <v>3.454043702871554</v>
+        <v>3.454043702871548</v>
       </c>
       <c r="S28" t="n">
-        <v>1.338738734008243</v>
+        <v>1.33873873400824</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3282249373937789</v>
+        <v>0.3282249373937783</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004190105583750375</v>
+        <v>0.004190105583750367</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1712538965552914</v>
+        <v>0.1712538965552911</v>
       </c>
       <c r="H29" t="n">
-        <v>1.753853968096878</v>
+        <v>1.753853968096875</v>
       </c>
       <c r="I29" t="n">
-        <v>6.602265846947878</v>
+        <v>6.602265846947866</v>
       </c>
       <c r="J29" t="n">
-        <v>14.53496040275968</v>
+        <v>14.53496040275965</v>
       </c>
       <c r="K29" t="n">
-        <v>21.78413784394516</v>
+        <v>21.78413784394512</v>
       </c>
       <c r="L29" t="n">
-        <v>27.02514928064917</v>
+        <v>27.02514928064912</v>
       </c>
       <c r="M29" t="n">
-        <v>30.07068576351433</v>
+        <v>30.07068576351428</v>
       </c>
       <c r="N29" t="n">
-        <v>30.55726089710205</v>
+        <v>30.557260897102</v>
       </c>
       <c r="O29" t="n">
-        <v>28.85435496323037</v>
+        <v>28.85435496323032</v>
       </c>
       <c r="P29" t="n">
-        <v>24.62652439202162</v>
+        <v>24.62652439202157</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.49349422163523</v>
+        <v>18.4934942216352</v>
       </c>
       <c r="R29" t="n">
-        <v>10.75752757949133</v>
+        <v>10.75752757949131</v>
       </c>
       <c r="S29" t="n">
-        <v>3.902448167753707</v>
+        <v>3.9024481677537</v>
       </c>
       <c r="T29" t="n">
-        <v>0.7496639321707884</v>
+        <v>0.7496639321707871</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01370031172442331</v>
+        <v>0.01370031172442328</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09162891267106943</v>
+        <v>0.09162891267106926</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8849423934284865</v>
+        <v>0.8849423934284848</v>
       </c>
       <c r="I30" t="n">
-        <v>3.154767388017083</v>
+        <v>3.154767388017078</v>
       </c>
       <c r="J30" t="n">
-        <v>8.656922841436433</v>
+        <v>8.656922841436417</v>
       </c>
       <c r="K30" t="n">
-        <v>14.79605999039808</v>
+        <v>14.79605999039806</v>
       </c>
       <c r="L30" t="n">
-        <v>19.89512860430391</v>
+        <v>19.89512860430388</v>
       </c>
       <c r="M30" t="n">
-        <v>23.21667668863017</v>
+        <v>23.21667668863013</v>
       </c>
       <c r="N30" t="n">
-        <v>23.83115303720064</v>
+        <v>23.8311530372006</v>
       </c>
       <c r="O30" t="n">
-        <v>21.80084923538378</v>
+        <v>21.80084923538374</v>
       </c>
       <c r="P30" t="n">
-        <v>17.49710350821501</v>
+        <v>17.49710350821497</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.69635032622283</v>
+        <v>11.69635032622281</v>
       </c>
       <c r="R30" t="n">
-        <v>5.689030209524821</v>
+        <v>5.689030209524811</v>
       </c>
       <c r="S30" t="n">
-        <v>1.701966864745521</v>
+        <v>1.701966864745518</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3693288190557578</v>
+        <v>0.3693288190557571</v>
       </c>
       <c r="U30" t="n">
-        <v>0.006028217938886148</v>
+        <v>0.006028217938886138</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07681860236875679</v>
+        <v>0.07681860236875664</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6829872101513108</v>
+        <v>0.6829872101513096</v>
       </c>
       <c r="I31" t="n">
-        <v>2.310144878507705</v>
+        <v>2.310144878507701</v>
       </c>
       <c r="J31" t="n">
-        <v>5.431075187471104</v>
+        <v>5.431075187471095</v>
       </c>
       <c r="K31" t="n">
-        <v>8.924924893388287</v>
+        <v>8.924924893388269</v>
       </c>
       <c r="L31" t="n">
-        <v>11.42083111944226</v>
+        <v>11.42083111944224</v>
       </c>
       <c r="M31" t="n">
-        <v>12.04166509676794</v>
+        <v>12.04166509676791</v>
       </c>
       <c r="N31" t="n">
-        <v>11.75534121521167</v>
+        <v>11.75534121521165</v>
       </c>
       <c r="O31" t="n">
-        <v>10.85796026935846</v>
+        <v>10.85796026935844</v>
       </c>
       <c r="P31" t="n">
-        <v>9.290860781035816</v>
+        <v>9.2908607810358</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.432510421987444</v>
+        <v>6.432510421987431</v>
       </c>
       <c r="R31" t="n">
-        <v>3.454043702871554</v>
+        <v>3.454043702871548</v>
       </c>
       <c r="S31" t="n">
-        <v>1.338738734008243</v>
+        <v>1.33873873400824</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3282249373937789</v>
+        <v>0.3282249373937783</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004190105583750375</v>
+        <v>0.004190105583750367</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1712538965552914</v>
+        <v>0.1712538965552911</v>
       </c>
       <c r="H32" t="n">
-        <v>1.753853968096878</v>
+        <v>1.753853968096875</v>
       </c>
       <c r="I32" t="n">
-        <v>6.602265846947878</v>
+        <v>6.602265846947866</v>
       </c>
       <c r="J32" t="n">
-        <v>14.53496040275968</v>
+        <v>14.53496040275965</v>
       </c>
       <c r="K32" t="n">
-        <v>21.78413784394516</v>
+        <v>21.78413784394512</v>
       </c>
       <c r="L32" t="n">
-        <v>27.02514928064917</v>
+        <v>27.02514928064912</v>
       </c>
       <c r="M32" t="n">
-        <v>30.07068576351433</v>
+        <v>30.07068576351428</v>
       </c>
       <c r="N32" t="n">
-        <v>30.55726089710205</v>
+        <v>30.557260897102</v>
       </c>
       <c r="O32" t="n">
-        <v>28.85435496323037</v>
+        <v>28.85435496323032</v>
       </c>
       <c r="P32" t="n">
-        <v>24.62652439202162</v>
+        <v>24.62652439202157</v>
       </c>
       <c r="Q32" t="n">
-        <v>18.49349422163523</v>
+        <v>18.4934942216352</v>
       </c>
       <c r="R32" t="n">
-        <v>10.75752757949133</v>
+        <v>10.75752757949131</v>
       </c>
       <c r="S32" t="n">
-        <v>3.902448167753707</v>
+        <v>3.9024481677537</v>
       </c>
       <c r="T32" t="n">
-        <v>0.7496639321707884</v>
+        <v>0.7496639321707871</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01370031172442331</v>
+        <v>0.01370031172442328</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09162891267106943</v>
+        <v>0.09162891267106926</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8849423934284865</v>
+        <v>0.8849423934284848</v>
       </c>
       <c r="I33" t="n">
-        <v>3.154767388017083</v>
+        <v>3.154767388017078</v>
       </c>
       <c r="J33" t="n">
-        <v>8.656922841436433</v>
+        <v>8.656922841436417</v>
       </c>
       <c r="K33" t="n">
-        <v>14.79605999039808</v>
+        <v>14.79605999039806</v>
       </c>
       <c r="L33" t="n">
-        <v>19.89512860430391</v>
+        <v>19.89512860430388</v>
       </c>
       <c r="M33" t="n">
-        <v>23.21667668863017</v>
+        <v>23.21667668863013</v>
       </c>
       <c r="N33" t="n">
-        <v>23.83115303720064</v>
+        <v>23.8311530372006</v>
       </c>
       <c r="O33" t="n">
-        <v>21.80084923538378</v>
+        <v>21.80084923538374</v>
       </c>
       <c r="P33" t="n">
-        <v>17.49710350821501</v>
+        <v>17.49710350821497</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.69635032622283</v>
+        <v>11.69635032622281</v>
       </c>
       <c r="R33" t="n">
-        <v>5.689030209524821</v>
+        <v>5.689030209524811</v>
       </c>
       <c r="S33" t="n">
-        <v>1.701966864745521</v>
+        <v>1.701966864745518</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3693288190557578</v>
+        <v>0.3693288190557571</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006028217938886148</v>
+        <v>0.006028217938886138</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07681860236875679</v>
+        <v>0.07681860236875664</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6829872101513108</v>
+        <v>0.6829872101513096</v>
       </c>
       <c r="I34" t="n">
-        <v>2.310144878507705</v>
+        <v>2.310144878507701</v>
       </c>
       <c r="J34" t="n">
-        <v>5.431075187471104</v>
+        <v>5.431075187471095</v>
       </c>
       <c r="K34" t="n">
-        <v>8.924924893388287</v>
+        <v>8.924924893388269</v>
       </c>
       <c r="L34" t="n">
-        <v>11.42083111944226</v>
+        <v>11.42083111944224</v>
       </c>
       <c r="M34" t="n">
-        <v>12.04166509676794</v>
+        <v>12.04166509676791</v>
       </c>
       <c r="N34" t="n">
-        <v>11.75534121521167</v>
+        <v>11.75534121521165</v>
       </c>
       <c r="O34" t="n">
-        <v>10.85796026935846</v>
+        <v>10.85796026935844</v>
       </c>
       <c r="P34" t="n">
-        <v>9.290860781035816</v>
+        <v>9.2908607810358</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.432510421987444</v>
+        <v>6.432510421987431</v>
       </c>
       <c r="R34" t="n">
-        <v>3.454043702871554</v>
+        <v>3.454043702871548</v>
       </c>
       <c r="S34" t="n">
-        <v>1.338738734008243</v>
+        <v>1.33873873400824</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3282249373937789</v>
+        <v>0.3282249373937783</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004190105583750375</v>
+        <v>0.004190105583750367</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1712538965552914</v>
+        <v>0.1712538965552911</v>
       </c>
       <c r="H35" t="n">
-        <v>1.753853968096878</v>
+        <v>1.753853968096875</v>
       </c>
       <c r="I35" t="n">
-        <v>6.602265846947878</v>
+        <v>6.602265846947866</v>
       </c>
       <c r="J35" t="n">
-        <v>14.53496040275968</v>
+        <v>14.53496040275965</v>
       </c>
       <c r="K35" t="n">
-        <v>21.78413784394516</v>
+        <v>21.78413784394512</v>
       </c>
       <c r="L35" t="n">
-        <v>27.02514928064917</v>
+        <v>27.02514928064912</v>
       </c>
       <c r="M35" t="n">
-        <v>30.07068576351433</v>
+        <v>30.07068576351428</v>
       </c>
       <c r="N35" t="n">
-        <v>30.55726089710205</v>
+        <v>30.557260897102</v>
       </c>
       <c r="O35" t="n">
-        <v>28.85435496323037</v>
+        <v>28.85435496323032</v>
       </c>
       <c r="P35" t="n">
-        <v>24.62652439202162</v>
+        <v>24.62652439202157</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.49349422163523</v>
+        <v>18.4934942216352</v>
       </c>
       <c r="R35" t="n">
-        <v>10.75752757949133</v>
+        <v>10.75752757949131</v>
       </c>
       <c r="S35" t="n">
-        <v>3.902448167753707</v>
+        <v>3.9024481677537</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7496639321707884</v>
+        <v>0.7496639321707871</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01370031172442331</v>
+        <v>0.01370031172442328</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.09162891267106943</v>
+        <v>0.09162891267106926</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8849423934284865</v>
+        <v>0.8849423934284848</v>
       </c>
       <c r="I36" t="n">
-        <v>3.154767388017083</v>
+        <v>3.154767388017078</v>
       </c>
       <c r="J36" t="n">
-        <v>8.656922841436433</v>
+        <v>8.656922841436417</v>
       </c>
       <c r="K36" t="n">
-        <v>14.79605999039808</v>
+        <v>14.79605999039806</v>
       </c>
       <c r="L36" t="n">
-        <v>19.89512860430391</v>
+        <v>19.89512860430388</v>
       </c>
       <c r="M36" t="n">
-        <v>23.21667668863017</v>
+        <v>23.21667668863013</v>
       </c>
       <c r="N36" t="n">
-        <v>23.83115303720064</v>
+        <v>23.8311530372006</v>
       </c>
       <c r="O36" t="n">
-        <v>21.80084923538378</v>
+        <v>21.80084923538374</v>
       </c>
       <c r="P36" t="n">
-        <v>17.49710350821501</v>
+        <v>17.49710350821497</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.69635032622283</v>
+        <v>11.69635032622281</v>
       </c>
       <c r="R36" t="n">
-        <v>5.689030209524821</v>
+        <v>5.689030209524811</v>
       </c>
       <c r="S36" t="n">
-        <v>1.701966864745521</v>
+        <v>1.701966864745518</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3693288190557578</v>
+        <v>0.3693288190557571</v>
       </c>
       <c r="U36" t="n">
-        <v>0.006028217938886148</v>
+        <v>0.006028217938886138</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07681860236875679</v>
+        <v>0.07681860236875664</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6829872101513108</v>
+        <v>0.6829872101513096</v>
       </c>
       <c r="I37" t="n">
-        <v>2.310144878507705</v>
+        <v>2.310144878507701</v>
       </c>
       <c r="J37" t="n">
-        <v>5.431075187471104</v>
+        <v>5.431075187471095</v>
       </c>
       <c r="K37" t="n">
-        <v>8.924924893388287</v>
+        <v>8.924924893388269</v>
       </c>
       <c r="L37" t="n">
-        <v>11.42083111944226</v>
+        <v>11.42083111944224</v>
       </c>
       <c r="M37" t="n">
-        <v>12.04166509676794</v>
+        <v>12.04166509676791</v>
       </c>
       <c r="N37" t="n">
-        <v>11.75534121521167</v>
+        <v>11.75534121521165</v>
       </c>
       <c r="O37" t="n">
-        <v>10.85796026935846</v>
+        <v>10.85796026935844</v>
       </c>
       <c r="P37" t="n">
-        <v>9.290860781035816</v>
+        <v>9.2908607810358</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.432510421987444</v>
+        <v>6.432510421987431</v>
       </c>
       <c r="R37" t="n">
-        <v>3.454043702871554</v>
+        <v>3.454043702871548</v>
       </c>
       <c r="S37" t="n">
-        <v>1.338738734008243</v>
+        <v>1.33873873400824</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3282249373937789</v>
+        <v>0.3282249373937783</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004190105583750375</v>
+        <v>0.004190105583750367</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1712538965552919</v>
+        <v>0.1712538965552911</v>
       </c>
       <c r="H38" t="n">
-        <v>1.753853968096884</v>
+        <v>1.753853968096875</v>
       </c>
       <c r="I38" t="n">
-        <v>6.602265846947899</v>
+        <v>6.602265846947866</v>
       </c>
       <c r="J38" t="n">
-        <v>14.53496040275972</v>
+        <v>14.53496040275965</v>
       </c>
       <c r="K38" t="n">
-        <v>21.78413784394523</v>
+        <v>21.78413784394512</v>
       </c>
       <c r="L38" t="n">
-        <v>27.02514928064926</v>
+        <v>27.02514928064912</v>
       </c>
       <c r="M38" t="n">
-        <v>30.07068576351443</v>
+        <v>30.07068576351428</v>
       </c>
       <c r="N38" t="n">
-        <v>30.55726089710215</v>
+        <v>30.557260897102</v>
       </c>
       <c r="O38" t="n">
-        <v>28.85435496323047</v>
+        <v>28.85435496323032</v>
       </c>
       <c r="P38" t="n">
-        <v>24.62652439202169</v>
+        <v>24.62652439202157</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.4934942216353</v>
+        <v>18.4934942216352</v>
       </c>
       <c r="R38" t="n">
-        <v>10.75752757949137</v>
+        <v>10.75752757949131</v>
       </c>
       <c r="S38" t="n">
-        <v>3.902448167753719</v>
+        <v>3.9024481677537</v>
       </c>
       <c r="T38" t="n">
-        <v>0.7496639321707909</v>
+        <v>0.7496639321707871</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01370031172442335</v>
+        <v>0.01370031172442328</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09162891267106972</v>
+        <v>0.09162891267106926</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8849423934284892</v>
+        <v>0.8849423934284848</v>
       </c>
       <c r="I39" t="n">
-        <v>3.154767388017094</v>
+        <v>3.154767388017078</v>
       </c>
       <c r="J39" t="n">
-        <v>8.65692284143646</v>
+        <v>8.656922841436417</v>
       </c>
       <c r="K39" t="n">
-        <v>14.79605999039813</v>
+        <v>14.79605999039806</v>
       </c>
       <c r="L39" t="n">
-        <v>19.89512860430398</v>
+        <v>19.89512860430388</v>
       </c>
       <c r="M39" t="n">
-        <v>23.21667668863025</v>
+        <v>23.21667668863013</v>
       </c>
       <c r="N39" t="n">
-        <v>23.83115303720071</v>
+        <v>23.8311530372006</v>
       </c>
       <c r="O39" t="n">
-        <v>21.80084923538385</v>
+        <v>21.80084923538374</v>
       </c>
       <c r="P39" t="n">
-        <v>17.49710350821506</v>
+        <v>17.49710350821497</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.69635032622286</v>
+        <v>11.69635032622281</v>
       </c>
       <c r="R39" t="n">
-        <v>5.689030209524839</v>
+        <v>5.689030209524811</v>
       </c>
       <c r="S39" t="n">
-        <v>1.701966864745526</v>
+        <v>1.701966864745518</v>
       </c>
       <c r="T39" t="n">
-        <v>0.3693288190557589</v>
+        <v>0.3693288190557571</v>
       </c>
       <c r="U39" t="n">
-        <v>0.006028217938886168</v>
+        <v>0.006028217938886138</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.07681860236875702</v>
+        <v>0.07681860236875664</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6829872101513129</v>
+        <v>0.6829872101513096</v>
       </c>
       <c r="I40" t="n">
-        <v>2.310144878507712</v>
+        <v>2.310144878507701</v>
       </c>
       <c r="J40" t="n">
-        <v>5.431075187471121</v>
+        <v>5.431075187471095</v>
       </c>
       <c r="K40" t="n">
-        <v>8.924924893388315</v>
+        <v>8.924924893388269</v>
       </c>
       <c r="L40" t="n">
-        <v>11.4208311194423</v>
+        <v>11.42083111944224</v>
       </c>
       <c r="M40" t="n">
-        <v>12.04166509676798</v>
+        <v>12.04166509676791</v>
       </c>
       <c r="N40" t="n">
-        <v>11.75534121521171</v>
+        <v>11.75534121521165</v>
       </c>
       <c r="O40" t="n">
-        <v>10.8579602693585</v>
+        <v>10.85796026935844</v>
       </c>
       <c r="P40" t="n">
-        <v>9.290860781035846</v>
+        <v>9.2908607810358</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.432510421987464</v>
+        <v>6.432510421987431</v>
       </c>
       <c r="R40" t="n">
-        <v>3.454043702871565</v>
+        <v>3.454043702871548</v>
       </c>
       <c r="S40" t="n">
-        <v>1.338738734008247</v>
+        <v>1.33873873400824</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3282249373937799</v>
+        <v>0.3282249373937783</v>
       </c>
       <c r="U40" t="n">
-        <v>0.004190105583750388</v>
+        <v>0.004190105583750367</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1712538965552919</v>
+        <v>0.1712538965552912</v>
       </c>
       <c r="H41" t="n">
-        <v>1.753853968096884</v>
+        <v>1.753853968096876</v>
       </c>
       <c r="I41" t="n">
-        <v>6.602265846947899</v>
+        <v>6.602265846947869</v>
       </c>
       <c r="J41" t="n">
-        <v>14.53496040275972</v>
+        <v>14.53496040275966</v>
       </c>
       <c r="K41" t="n">
-        <v>21.78413784394523</v>
+        <v>21.78413784394514</v>
       </c>
       <c r="L41" t="n">
-        <v>27.02514928064926</v>
+        <v>27.02514928064913</v>
       </c>
       <c r="M41" t="n">
-        <v>30.07068576351443</v>
+        <v>30.07068576351429</v>
       </c>
       <c r="N41" t="n">
-        <v>30.55726089710215</v>
+        <v>30.55726089710202</v>
       </c>
       <c r="O41" t="n">
-        <v>28.85435496323047</v>
+        <v>28.85435496323034</v>
       </c>
       <c r="P41" t="n">
-        <v>24.62652439202169</v>
+        <v>24.62652439202158</v>
       </c>
       <c r="Q41" t="n">
-        <v>18.4934942216353</v>
+        <v>18.49349422163521</v>
       </c>
       <c r="R41" t="n">
-        <v>10.75752757949137</v>
+        <v>10.75752757949132</v>
       </c>
       <c r="S41" t="n">
-        <v>3.902448167753719</v>
+        <v>3.902448167753701</v>
       </c>
       <c r="T41" t="n">
-        <v>0.7496639321707909</v>
+        <v>0.7496639321707874</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01370031172442335</v>
+        <v>0.01370031172442329</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.09162891267106972</v>
+        <v>0.0916289126710693</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8849423934284892</v>
+        <v>0.8849423934284852</v>
       </c>
       <c r="I42" t="n">
-        <v>3.154767388017094</v>
+        <v>3.154767388017079</v>
       </c>
       <c r="J42" t="n">
-        <v>8.65692284143646</v>
+        <v>8.656922841436421</v>
       </c>
       <c r="K42" t="n">
-        <v>14.79605999039813</v>
+        <v>14.79605999039806</v>
       </c>
       <c r="L42" t="n">
-        <v>19.89512860430398</v>
+        <v>19.89512860430389</v>
       </c>
       <c r="M42" t="n">
-        <v>23.21667668863025</v>
+        <v>23.21667668863014</v>
       </c>
       <c r="N42" t="n">
-        <v>23.83115303720071</v>
+        <v>23.83115303720061</v>
       </c>
       <c r="O42" t="n">
-        <v>21.80084923538385</v>
+        <v>21.80084923538375</v>
       </c>
       <c r="P42" t="n">
-        <v>17.49710350821506</v>
+        <v>17.49710350821498</v>
       </c>
       <c r="Q42" t="n">
-        <v>11.69635032622286</v>
+        <v>11.69635032622281</v>
       </c>
       <c r="R42" t="n">
-        <v>5.689030209524839</v>
+        <v>5.689030209524813</v>
       </c>
       <c r="S42" t="n">
-        <v>1.701966864745526</v>
+        <v>1.701966864745519</v>
       </c>
       <c r="T42" t="n">
-        <v>0.3693288190557589</v>
+        <v>0.3693288190557573</v>
       </c>
       <c r="U42" t="n">
-        <v>0.006028217938886168</v>
+        <v>0.00602821793888614</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07681860236875702</v>
+        <v>0.07681860236875668</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6829872101513129</v>
+        <v>0.6829872101513099</v>
       </c>
       <c r="I43" t="n">
-        <v>2.310144878507712</v>
+        <v>2.310144878507701</v>
       </c>
       <c r="J43" t="n">
-        <v>5.431075187471121</v>
+        <v>5.431075187471097</v>
       </c>
       <c r="K43" t="n">
-        <v>8.924924893388315</v>
+        <v>8.924924893388274</v>
       </c>
       <c r="L43" t="n">
-        <v>11.4208311194423</v>
+        <v>11.42083111944224</v>
       </c>
       <c r="M43" t="n">
-        <v>12.04166509676798</v>
+        <v>12.04166509676792</v>
       </c>
       <c r="N43" t="n">
-        <v>11.75534121521171</v>
+        <v>11.75534121521166</v>
       </c>
       <c r="O43" t="n">
-        <v>10.8579602693585</v>
+        <v>10.85796026935845</v>
       </c>
       <c r="P43" t="n">
-        <v>9.290860781035846</v>
+        <v>9.290860781035803</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.432510421987464</v>
+        <v>6.432510421987435</v>
       </c>
       <c r="R43" t="n">
-        <v>3.454043702871565</v>
+        <v>3.454043702871549</v>
       </c>
       <c r="S43" t="n">
-        <v>1.338738734008247</v>
+        <v>1.338738734008241</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3282249373937799</v>
+        <v>0.3282249373937784</v>
       </c>
       <c r="U43" t="n">
-        <v>0.004190105583750388</v>
+        <v>0.00419010558375037</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1712538965552919</v>
+        <v>0.1712538965552912</v>
       </c>
       <c r="H44" t="n">
-        <v>1.753853968096884</v>
+        <v>1.753853968096876</v>
       </c>
       <c r="I44" t="n">
-        <v>6.602265846947899</v>
+        <v>6.602265846947869</v>
       </c>
       <c r="J44" t="n">
-        <v>14.53496040275972</v>
+        <v>14.53496040275966</v>
       </c>
       <c r="K44" t="n">
-        <v>21.78413784394523</v>
+        <v>21.78413784394514</v>
       </c>
       <c r="L44" t="n">
-        <v>27.02514928064926</v>
+        <v>27.02514928064913</v>
       </c>
       <c r="M44" t="n">
-        <v>30.07068576351443</v>
+        <v>30.07068576351429</v>
       </c>
       <c r="N44" t="n">
-        <v>30.55726089710215</v>
+        <v>30.55726089710202</v>
       </c>
       <c r="O44" t="n">
-        <v>28.85435496323047</v>
+        <v>28.85435496323034</v>
       </c>
       <c r="P44" t="n">
-        <v>24.62652439202169</v>
+        <v>24.62652439202158</v>
       </c>
       <c r="Q44" t="n">
-        <v>18.4934942216353</v>
+        <v>18.49349422163521</v>
       </c>
       <c r="R44" t="n">
-        <v>10.75752757949137</v>
+        <v>10.75752757949132</v>
       </c>
       <c r="S44" t="n">
-        <v>3.902448167753719</v>
+        <v>3.902448167753701</v>
       </c>
       <c r="T44" t="n">
-        <v>0.7496639321707909</v>
+        <v>0.7496639321707874</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01370031172442335</v>
+        <v>0.01370031172442329</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.09162891267106972</v>
+        <v>0.0916289126710693</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8849423934284892</v>
+        <v>0.8849423934284852</v>
       </c>
       <c r="I45" t="n">
-        <v>3.154767388017094</v>
+        <v>3.154767388017079</v>
       </c>
       <c r="J45" t="n">
-        <v>8.65692284143646</v>
+        <v>8.656922841436421</v>
       </c>
       <c r="K45" t="n">
-        <v>14.79605999039813</v>
+        <v>14.79605999039806</v>
       </c>
       <c r="L45" t="n">
-        <v>19.89512860430398</v>
+        <v>19.89512860430389</v>
       </c>
       <c r="M45" t="n">
-        <v>23.21667668863025</v>
+        <v>23.21667668863014</v>
       </c>
       <c r="N45" t="n">
-        <v>23.83115303720071</v>
+        <v>23.83115303720061</v>
       </c>
       <c r="O45" t="n">
-        <v>21.80084923538385</v>
+        <v>21.80084923538375</v>
       </c>
       <c r="P45" t="n">
-        <v>17.49710350821506</v>
+        <v>17.49710350821498</v>
       </c>
       <c r="Q45" t="n">
-        <v>11.69635032622286</v>
+        <v>11.69635032622281</v>
       </c>
       <c r="R45" t="n">
-        <v>5.689030209524839</v>
+        <v>5.689030209524813</v>
       </c>
       <c r="S45" t="n">
-        <v>1.701966864745526</v>
+        <v>1.701966864745519</v>
       </c>
       <c r="T45" t="n">
-        <v>0.3693288190557589</v>
+        <v>0.3693288190557573</v>
       </c>
       <c r="U45" t="n">
-        <v>0.006028217938886168</v>
+        <v>0.00602821793888614</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.07681860236875702</v>
+        <v>0.07681860236875668</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6829872101513129</v>
+        <v>0.6829872101513099</v>
       </c>
       <c r="I46" t="n">
-        <v>2.310144878507712</v>
+        <v>2.310144878507701</v>
       </c>
       <c r="J46" t="n">
-        <v>5.431075187471121</v>
+        <v>5.431075187471097</v>
       </c>
       <c r="K46" t="n">
-        <v>8.924924893388315</v>
+        <v>8.924924893388274</v>
       </c>
       <c r="L46" t="n">
-        <v>11.4208311194423</v>
+        <v>11.42083111944224</v>
       </c>
       <c r="M46" t="n">
-        <v>12.04166509676798</v>
+        <v>12.04166509676792</v>
       </c>
       <c r="N46" t="n">
-        <v>11.75534121521171</v>
+        <v>11.75534121521166</v>
       </c>
       <c r="O46" t="n">
-        <v>10.8579602693585</v>
+        <v>10.85796026935845</v>
       </c>
       <c r="P46" t="n">
-        <v>9.290860781035846</v>
+        <v>9.290860781035803</v>
       </c>
       <c r="Q46" t="n">
-        <v>6.432510421987464</v>
+        <v>6.432510421987435</v>
       </c>
       <c r="R46" t="n">
-        <v>3.454043702871565</v>
+        <v>3.454043702871549</v>
       </c>
       <c r="S46" t="n">
-        <v>1.338738734008247</v>
+        <v>1.338738734008241</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3282249373937799</v>
+        <v>0.3282249373937784</v>
       </c>
       <c r="U46" t="n">
-        <v>0.004190105583750388</v>
+        <v>0.00419010558375037</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>522.0635703700256</v>
@@ -34707,22 +34707,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="P2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P2" t="n">
-        <v>500.9700927793177</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>506.6900639491206</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>445.0368534430332</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700256</v>
+        <v>400.909295520443</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35023,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>367.8628411009267</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>500.9700927793173</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>147.5918456237784</v>
       </c>
       <c r="O9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N11" t="n">
         <v>760.7889056955737</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>341.0311751787576</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>87.49261310237</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,10 +35509,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>547.9029729663084</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>460.4103598639381</v>
@@ -36214,7 +36214,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>685.9925074875634</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P21" t="n">
         <v>567.3796893823536</v>
@@ -36223,7 +36223,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.2879618853398</v>
+        <v>271.2879618853397</v>
       </c>
       <c r="K23" t="n">
         <v>565.3795935096416</v>
       </c>
       <c r="L23" t="n">
-        <v>746.8144420202835</v>
+        <v>746.8144420202834</v>
       </c>
       <c r="M23" t="n">
-        <v>814.2308786844779</v>
+        <v>814.2308786844778</v>
       </c>
       <c r="N23" t="n">
-        <v>791.3461665926758</v>
+        <v>791.3461665926757</v>
       </c>
       <c r="O23" t="n">
         <v>678.9865331623262</v>
@@ -36381,7 +36381,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R23" t="n">
-        <v>51.72383635682953</v>
+        <v>51.72383635682951</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>279.8033285417081</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>35.54713057581763</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>19.65587256647163</v>
+        <v>19.65587256647162</v>
       </c>
       <c r="K25" t="n">
         <v>165.0383872390832</v>
@@ -36536,7 +36536,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.62243951543273</v>
+        <v>72.62243951543272</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.2879618853389</v>
+        <v>271.2879618853397</v>
       </c>
       <c r="K26" t="n">
         <v>565.3795935096416</v>
       </c>
       <c r="L26" t="n">
-        <v>746.8144420202835</v>
+        <v>746.8144420202834</v>
       </c>
       <c r="M26" t="n">
-        <v>814.2308786844779</v>
+        <v>814.2308786844778</v>
       </c>
       <c r="N26" t="n">
-        <v>791.3461665926758</v>
+        <v>791.3461665926757</v>
       </c>
       <c r="O26" t="n">
         <v>678.9865331623262</v>
@@ -36618,7 +36618,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R26" t="n">
-        <v>51.72383635682953</v>
+        <v>51.72383635682951</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>279.8033285417085</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.54713057581763</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>19.65587256647163</v>
+        <v>19.65587256647162</v>
       </c>
       <c r="K28" t="n">
         <v>165.0383872390832</v>
@@ -36773,7 +36773,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.62243951543273</v>
+        <v>72.62243951543272</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.2879618853398</v>
+        <v>271.2879618853397</v>
       </c>
       <c r="K29" t="n">
         <v>565.3795935096416</v>
       </c>
       <c r="L29" t="n">
-        <v>746.8144420202835</v>
+        <v>746.8144420202834</v>
       </c>
       <c r="M29" t="n">
-        <v>814.2308786844779</v>
+        <v>814.2308786844778</v>
       </c>
       <c r="N29" t="n">
-        <v>791.3461665926758</v>
+        <v>791.3461665926757</v>
       </c>
       <c r="O29" t="n">
         <v>678.9865331623262</v>
@@ -36855,7 +36855,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R29" t="n">
-        <v>51.72383635682953</v>
+        <v>51.72383635682951</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L30" t="n">
-        <v>687.6609588258071</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>498.4564440779687</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.54713057581763</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>19.65587256647163</v>
+        <v>19.65587256647162</v>
       </c>
       <c r="K31" t="n">
         <v>165.0383872390832</v>
@@ -37010,7 +37010,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.62243951543273</v>
+        <v>72.62243951543272</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.2879618853398</v>
+        <v>271.2879618853397</v>
       </c>
       <c r="K32" t="n">
         <v>565.3795935096416</v>
       </c>
       <c r="L32" t="n">
-        <v>746.8144420202835</v>
+        <v>746.8144420202834</v>
       </c>
       <c r="M32" t="n">
-        <v>814.2308786844779</v>
+        <v>814.2308786844778</v>
       </c>
       <c r="N32" t="n">
-        <v>791.3461665926758</v>
+        <v>791.3461665926757</v>
       </c>
       <c r="O32" t="n">
         <v>678.9865331623262</v>
@@ -37092,7 +37092,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R32" t="n">
-        <v>51.72383635682953</v>
+        <v>51.72383635682951</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L33" t="n">
-        <v>279.8033285417085</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>874.7086773902126</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="N33" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.54713057581763</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>19.65587256647163</v>
+        <v>19.65587256647162</v>
       </c>
       <c r="K34" t="n">
         <v>165.0383872390832</v>
@@ -37247,7 +37247,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.62243951543273</v>
+        <v>72.62243951543272</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.2879618853398</v>
+        <v>271.2879618853397</v>
       </c>
       <c r="K35" t="n">
         <v>565.3795935096416</v>
       </c>
       <c r="L35" t="n">
-        <v>746.8144420202835</v>
+        <v>746.8144420202834</v>
       </c>
       <c r="M35" t="n">
-        <v>814.2308786844779</v>
+        <v>814.2308786844778</v>
       </c>
       <c r="N35" t="n">
-        <v>791.3461665926758</v>
+        <v>791.3461665926757</v>
       </c>
       <c r="O35" t="n">
         <v>678.9865331623262</v>
@@ -37329,7 +37329,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R35" t="n">
-        <v>51.72383635682953</v>
+        <v>51.72383635682951</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>687.6609588258071</v>
       </c>
       <c r="M36" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>906.3140743620672</v>
+        <v>313.0819087232767</v>
       </c>
       <c r="O36" t="n">
-        <v>279.8033285417085</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>19.65587256647163</v>
+        <v>19.65587256647162</v>
       </c>
       <c r="K37" t="n">
         <v>165.0383872390832</v>
@@ -37484,7 +37484,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.62243951543273</v>
+        <v>72.62243951543272</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.2879618853398</v>
+        <v>271.2879618853397</v>
       </c>
       <c r="K38" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L38" t="n">
-        <v>746.8144420202835</v>
+        <v>746.8144420202834</v>
       </c>
       <c r="M38" t="n">
-        <v>814.2308786844781</v>
+        <v>814.2308786844778</v>
       </c>
       <c r="N38" t="n">
-        <v>791.3461665926759</v>
+        <v>791.3461665926757</v>
       </c>
       <c r="O38" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P38" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q38" t="n">
-        <v>342.8985515906171</v>
+        <v>342.898551590617</v>
       </c>
       <c r="R38" t="n">
-        <v>51.72383635682957</v>
+        <v>51.72383635682951</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M39" t="n">
-        <v>874.7086773902128</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>279.8033285417085</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.54713057581763</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>19.65587256647165</v>
+        <v>19.65587256647162</v>
       </c>
       <c r="K40" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L40" t="n">
-        <v>273.943154634655</v>
+        <v>273.9431546346549</v>
       </c>
       <c r="M40" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N40" t="n">
-        <v>295.4308789871817</v>
+        <v>295.4308789871816</v>
       </c>
       <c r="O40" t="n">
         <v>273.0403949425647</v>
@@ -37721,7 +37721,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543272</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.2879618853395</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K41" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L41" t="n">
-        <v>746.8144420202835</v>
+        <v>746.8144420202834</v>
       </c>
       <c r="M41" t="n">
-        <v>814.2308786844781</v>
+        <v>814.2308786844778</v>
       </c>
       <c r="N41" t="n">
-        <v>791.3461665926759</v>
+        <v>791.3461665926757</v>
       </c>
       <c r="O41" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P41" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q41" t="n">
-        <v>342.8985515906171</v>
+        <v>342.898551590617</v>
       </c>
       <c r="R41" t="n">
-        <v>51.72383635682957</v>
+        <v>51.72383635682952</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>203.4173850259145</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>475.2064198543362</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>432.2508850414076</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>874.7086773902126</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>906.3140743620671</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>584.8767928905687</v>
+        <v>244.2561979658911</v>
       </c>
       <c r="Q42" t="n">
-        <v>365.0745974817616</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.54713057581764</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>19.65587256647165</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K43" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L43" t="n">
-        <v>273.943154634655</v>
+        <v>273.9431546346549</v>
       </c>
       <c r="M43" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N43" t="n">
-        <v>295.4308789871817</v>
+        <v>295.4308789871816</v>
       </c>
       <c r="O43" t="n">
         <v>273.0403949425647</v>
@@ -37958,7 +37958,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543272</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K44" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L44" t="n">
-        <v>746.8144420202835</v>
+        <v>746.8144420202834</v>
       </c>
       <c r="M44" t="n">
-        <v>814.2308786844781</v>
+        <v>814.2308786844778</v>
       </c>
       <c r="N44" t="n">
-        <v>791.3461665926759</v>
+        <v>791.3461665926757</v>
       </c>
       <c r="O44" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P44" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q44" t="n">
-        <v>342.8985515906171</v>
+        <v>342.898551590617</v>
       </c>
       <c r="R44" t="n">
-        <v>51.72383635682961</v>
+        <v>51.72383635682869</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K45" t="n">
         <v>475.2064198543362</v>
       </c>
       <c r="L45" t="n">
-        <v>687.6609588258073</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="P45" t="n">
-        <v>584.8767928905687</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q45" t="n">
-        <v>313.0819087232765</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.54713057581764</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>19.65587256647165</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K46" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L46" t="n">
-        <v>273.943154634655</v>
+        <v>273.9431546346549</v>
       </c>
       <c r="M46" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N46" t="n">
-        <v>295.4308789871817</v>
+        <v>295.4308789871816</v>
       </c>
       <c r="O46" t="n">
         <v>273.0403949425647</v>
@@ -38195,7 +38195,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543272</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
